--- a/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="314">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -780,40 +780,14 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.e777b4a8360802cb4fecd680b03b6e09530eaca821bce8709433b443c47c8cf3.4f3f0d47e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-10T15:43:41Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7242f70f13d5d92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.f2a3c05dcb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-10T15:43:43Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71f38d5322e081f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.958832c656^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il campo è presente staticamente nel template del CDA e non gestito da interfaccia</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -824,6 +798,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-09-10T15:43:43Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">0d6ad4e9719af304</t>
   </si>
   <si>
@@ -835,9 +812,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il campo è presente staticamente nel template del CDA e non gestito da interfaccia</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT8_KO</t>
   </si>
   <si>
@@ -1063,6 +1037,37 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.e777b4a8360802cb4fecd680b03b6e09530eaca821bce8709433b443c47c8cf3.4c299ea738^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-10T15:43:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7242f70f13d5d92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.f2a3c05dcb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71f38d5322e081f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.958832c656^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1352,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1451,6 +1456,27 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1477,7 +1503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1630,7 +1656,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1753,7 +1835,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2827,7 +2909,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3930,14 +4012,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="R9" activeCellId="0" sqref="R9"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5695,56 +5777,1051 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="n">
-        <v>170</v>
-      </c>
-      <c r="B35" s="28" t="s">
+    <row r="35" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="38" t="n">
+        <v>174</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="30" t="n">
-        <v>45545</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="31"/>
       <c r="L35" s="32"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
+      <c r="AD35" s="0"/>
+      <c r="AE35" s="0"/>
+      <c r="AF35" s="0"/>
+      <c r="AG35" s="0"/>
+      <c r="AH35" s="0"/>
+      <c r="AI35" s="0"/>
+      <c r="AJ35" s="0"/>
+      <c r="AK35" s="0"/>
+      <c r="AL35" s="0"/>
+      <c r="AM35" s="0"/>
+      <c r="AN35" s="0"/>
+      <c r="AO35" s="0"/>
+      <c r="AP35" s="0"/>
+      <c r="AQ35" s="0"/>
+      <c r="AR35" s="0"/>
+      <c r="AS35" s="0"/>
+      <c r="AT35" s="0"/>
+      <c r="AU35" s="0"/>
+      <c r="AV35" s="0"/>
+      <c r="AW35" s="0"/>
+      <c r="AX35" s="0"/>
+      <c r="AY35" s="0"/>
+      <c r="AZ35" s="0"/>
+      <c r="BA35" s="0"/>
+      <c r="BB35" s="0"/>
+      <c r="BC35" s="0"/>
+      <c r="BD35" s="0"/>
+      <c r="BE35" s="0"/>
+      <c r="BF35" s="0"/>
+      <c r="BG35" s="0"/>
+      <c r="BH35" s="0"/>
+      <c r="BI35" s="0"/>
+      <c r="BJ35" s="0"/>
+      <c r="BK35" s="0"/>
+      <c r="BL35" s="0"/>
+      <c r="BM35" s="0"/>
+      <c r="BN35" s="0"/>
+      <c r="BO35" s="0"/>
+      <c r="BP35" s="0"/>
+      <c r="BQ35" s="0"/>
+      <c r="BR35" s="0"/>
+      <c r="BS35" s="0"/>
+      <c r="BT35" s="0"/>
+      <c r="BU35" s="0"/>
+      <c r="BV35" s="0"/>
+      <c r="BW35" s="0"/>
+      <c r="BX35" s="0"/>
+      <c r="BY35" s="0"/>
+      <c r="BZ35" s="0"/>
+      <c r="CA35" s="0"/>
+      <c r="CB35" s="0"/>
+      <c r="CC35" s="0"/>
+      <c r="CD35" s="0"/>
+      <c r="CE35" s="0"/>
+      <c r="CF35" s="0"/>
+      <c r="CG35" s="0"/>
+      <c r="CH35" s="0"/>
+      <c r="CI35" s="0"/>
+      <c r="CJ35" s="0"/>
+      <c r="CK35" s="0"/>
+      <c r="CL35" s="0"/>
+      <c r="CM35" s="0"/>
+      <c r="CN35" s="0"/>
+      <c r="CO35" s="0"/>
+      <c r="CP35" s="0"/>
+      <c r="CQ35" s="0"/>
+      <c r="CR35" s="0"/>
+      <c r="CS35" s="0"/>
+      <c r="CT35" s="0"/>
+      <c r="CU35" s="0"/>
+      <c r="CV35" s="0"/>
+      <c r="CW35" s="0"/>
+      <c r="CX35" s="0"/>
+      <c r="CY35" s="0"/>
+      <c r="CZ35" s="0"/>
+      <c r="DA35" s="0"/>
+      <c r="DB35" s="0"/>
+      <c r="DC35" s="0"/>
+      <c r="DD35" s="0"/>
+      <c r="DE35" s="0"/>
+      <c r="DF35" s="0"/>
+      <c r="DG35" s="0"/>
+      <c r="DH35" s="0"/>
+      <c r="DI35" s="0"/>
+      <c r="DJ35" s="0"/>
+      <c r="DK35" s="0"/>
+      <c r="DL35" s="0"/>
+      <c r="DM35" s="0"/>
+      <c r="DN35" s="0"/>
+      <c r="DO35" s="0"/>
+      <c r="DP35" s="0"/>
+      <c r="DQ35" s="0"/>
+      <c r="DR35" s="0"/>
+      <c r="DS35" s="0"/>
+      <c r="DT35" s="0"/>
+      <c r="DU35" s="0"/>
+      <c r="DV35" s="0"/>
+      <c r="DW35" s="0"/>
+      <c r="DX35" s="0"/>
+      <c r="DY35" s="0"/>
+      <c r="DZ35" s="0"/>
+      <c r="EA35" s="0"/>
+      <c r="EB35" s="0"/>
+      <c r="EC35" s="0"/>
+      <c r="ED35" s="0"/>
+      <c r="EE35" s="0"/>
+      <c r="EF35" s="0"/>
+      <c r="EG35" s="0"/>
+      <c r="EH35" s="0"/>
+      <c r="EI35" s="0"/>
+      <c r="EJ35" s="0"/>
+      <c r="EK35" s="0"/>
+      <c r="EL35" s="0"/>
+      <c r="EM35" s="0"/>
+      <c r="EN35" s="0"/>
+      <c r="EO35" s="0"/>
+      <c r="EP35" s="0"/>
+      <c r="EQ35" s="0"/>
+      <c r="ER35" s="0"/>
+      <c r="ES35" s="0"/>
+      <c r="ET35" s="0"/>
+      <c r="EU35" s="0"/>
+      <c r="EV35" s="0"/>
+      <c r="EW35" s="0"/>
+      <c r="EX35" s="0"/>
+      <c r="EY35" s="0"/>
+      <c r="EZ35" s="0"/>
+      <c r="FA35" s="0"/>
+      <c r="FB35" s="0"/>
+      <c r="FC35" s="0"/>
+      <c r="FD35" s="0"/>
+      <c r="FE35" s="0"/>
+      <c r="FF35" s="0"/>
+      <c r="FG35" s="0"/>
+      <c r="FH35" s="0"/>
+      <c r="FI35" s="0"/>
+      <c r="FJ35" s="0"/>
+      <c r="FK35" s="0"/>
+      <c r="FL35" s="0"/>
+      <c r="FM35" s="0"/>
+      <c r="FN35" s="0"/>
+      <c r="FO35" s="0"/>
+      <c r="FP35" s="0"/>
+      <c r="FQ35" s="0"/>
+      <c r="FR35" s="0"/>
+      <c r="FS35" s="0"/>
+      <c r="FT35" s="0"/>
+      <c r="FU35" s="0"/>
+      <c r="FV35" s="0"/>
+      <c r="FW35" s="0"/>
+      <c r="FX35" s="0"/>
+      <c r="FY35" s="0"/>
+      <c r="FZ35" s="0"/>
+      <c r="GA35" s="0"/>
+      <c r="GB35" s="0"/>
+      <c r="GC35" s="0"/>
+      <c r="GD35" s="0"/>
+      <c r="GE35" s="0"/>
+      <c r="GF35" s="0"/>
+      <c r="GG35" s="0"/>
+      <c r="GH35" s="0"/>
+      <c r="GI35" s="0"/>
+      <c r="GJ35" s="0"/>
+      <c r="GK35" s="0"/>
+      <c r="GL35" s="0"/>
+      <c r="GM35" s="0"/>
+      <c r="GN35" s="0"/>
+      <c r="GO35" s="0"/>
+      <c r="GP35" s="0"/>
+      <c r="GQ35" s="0"/>
+      <c r="GR35" s="0"/>
+      <c r="GS35" s="0"/>
+      <c r="GT35" s="0"/>
+      <c r="GU35" s="0"/>
+      <c r="GV35" s="0"/>
+      <c r="GW35" s="0"/>
+      <c r="GX35" s="0"/>
+      <c r="GY35" s="0"/>
+      <c r="GZ35" s="0"/>
+      <c r="HA35" s="0"/>
+      <c r="HB35" s="0"/>
+      <c r="HC35" s="0"/>
+      <c r="HD35" s="0"/>
+      <c r="HE35" s="0"/>
+      <c r="HF35" s="0"/>
+      <c r="HG35" s="0"/>
+      <c r="HH35" s="0"/>
+      <c r="HI35" s="0"/>
+      <c r="HJ35" s="0"/>
+      <c r="HK35" s="0"/>
+      <c r="HL35" s="0"/>
+      <c r="HM35" s="0"/>
+      <c r="HN35" s="0"/>
+      <c r="HO35" s="0"/>
+      <c r="HP35" s="0"/>
+      <c r="HQ35" s="0"/>
+      <c r="HR35" s="0"/>
+      <c r="HS35" s="0"/>
+      <c r="HT35" s="0"/>
+      <c r="HU35" s="0"/>
+      <c r="HV35" s="0"/>
+      <c r="HW35" s="0"/>
+      <c r="HX35" s="0"/>
+      <c r="HY35" s="0"/>
+      <c r="HZ35" s="0"/>
+      <c r="IA35" s="0"/>
+      <c r="IB35" s="0"/>
+      <c r="IC35" s="0"/>
+      <c r="ID35" s="0"/>
+      <c r="IE35" s="0"/>
+      <c r="IF35" s="0"/>
+      <c r="IG35" s="0"/>
+      <c r="IH35" s="0"/>
+      <c r="II35" s="0"/>
+      <c r="IJ35" s="0"/>
+      <c r="IK35" s="0"/>
+      <c r="IL35" s="0"/>
+      <c r="IM35" s="0"/>
+      <c r="IN35" s="0"/>
+      <c r="IO35" s="0"/>
+      <c r="IP35" s="0"/>
+      <c r="IQ35" s="0"/>
+      <c r="IR35" s="0"/>
+      <c r="IS35" s="0"/>
+      <c r="IT35" s="0"/>
+      <c r="IU35" s="0"/>
+      <c r="IV35" s="0"/>
+      <c r="IW35" s="0"/>
+      <c r="IX35" s="0"/>
+      <c r="IY35" s="0"/>
+      <c r="IZ35" s="0"/>
+      <c r="JA35" s="0"/>
+      <c r="JB35" s="0"/>
+      <c r="JC35" s="0"/>
+      <c r="JD35" s="0"/>
+      <c r="JE35" s="0"/>
+      <c r="JF35" s="0"/>
+      <c r="JG35" s="0"/>
+      <c r="JH35" s="0"/>
+      <c r="JI35" s="0"/>
+      <c r="JJ35" s="0"/>
+      <c r="JK35" s="0"/>
+      <c r="JL35" s="0"/>
+      <c r="JM35" s="0"/>
+      <c r="JN35" s="0"/>
+      <c r="JO35" s="0"/>
+      <c r="JP35" s="0"/>
+      <c r="JQ35" s="0"/>
+      <c r="JR35" s="0"/>
+      <c r="JS35" s="0"/>
+      <c r="JT35" s="0"/>
+      <c r="JU35" s="0"/>
+      <c r="JV35" s="0"/>
+      <c r="JW35" s="0"/>
+      <c r="JX35" s="0"/>
+      <c r="JY35" s="0"/>
+      <c r="JZ35" s="0"/>
+      <c r="KA35" s="0"/>
+      <c r="KB35" s="0"/>
+      <c r="KC35" s="0"/>
+      <c r="KD35" s="0"/>
+      <c r="KE35" s="0"/>
+      <c r="KF35" s="0"/>
+      <c r="KG35" s="0"/>
+      <c r="KH35" s="0"/>
+      <c r="KI35" s="0"/>
+      <c r="KJ35" s="0"/>
+      <c r="KK35" s="0"/>
+      <c r="KL35" s="0"/>
+      <c r="KM35" s="0"/>
+      <c r="KN35" s="0"/>
+      <c r="KO35" s="0"/>
+      <c r="KP35" s="0"/>
+      <c r="KQ35" s="0"/>
+      <c r="KR35" s="0"/>
+      <c r="KS35" s="0"/>
+      <c r="KT35" s="0"/>
+      <c r="KU35" s="0"/>
+      <c r="KV35" s="0"/>
+      <c r="KW35" s="0"/>
+      <c r="KX35" s="0"/>
+      <c r="KY35" s="0"/>
+      <c r="KZ35" s="0"/>
+      <c r="LA35" s="0"/>
+      <c r="LB35" s="0"/>
+      <c r="LC35" s="0"/>
+      <c r="LD35" s="0"/>
+      <c r="LE35" s="0"/>
+      <c r="LF35" s="0"/>
+      <c r="LG35" s="0"/>
+      <c r="LH35" s="0"/>
+      <c r="LI35" s="0"/>
+      <c r="LJ35" s="0"/>
+      <c r="LK35" s="0"/>
+      <c r="LL35" s="0"/>
+      <c r="LM35" s="0"/>
+      <c r="LN35" s="0"/>
+      <c r="LO35" s="0"/>
+      <c r="LP35" s="0"/>
+      <c r="LQ35" s="0"/>
+      <c r="LR35" s="0"/>
+      <c r="LS35" s="0"/>
+      <c r="LT35" s="0"/>
+      <c r="LU35" s="0"/>
+      <c r="LV35" s="0"/>
+      <c r="LW35" s="0"/>
+      <c r="LX35" s="0"/>
+      <c r="LY35" s="0"/>
+      <c r="LZ35" s="0"/>
+      <c r="MA35" s="0"/>
+      <c r="MB35" s="0"/>
+      <c r="MC35" s="0"/>
+      <c r="MD35" s="0"/>
+      <c r="ME35" s="0"/>
+      <c r="MF35" s="0"/>
+      <c r="MG35" s="0"/>
+      <c r="MH35" s="0"/>
+      <c r="MI35" s="0"/>
+      <c r="MJ35" s="0"/>
+      <c r="MK35" s="0"/>
+      <c r="ML35" s="0"/>
+      <c r="MM35" s="0"/>
+      <c r="MN35" s="0"/>
+      <c r="MO35" s="0"/>
+      <c r="MP35" s="0"/>
+      <c r="MQ35" s="0"/>
+      <c r="MR35" s="0"/>
+      <c r="MS35" s="0"/>
+      <c r="MT35" s="0"/>
+      <c r="MU35" s="0"/>
+      <c r="MV35" s="0"/>
+      <c r="MW35" s="0"/>
+      <c r="MX35" s="0"/>
+      <c r="MY35" s="0"/>
+      <c r="MZ35" s="0"/>
+      <c r="NA35" s="0"/>
+      <c r="NB35" s="0"/>
+      <c r="NC35" s="0"/>
+      <c r="ND35" s="0"/>
+      <c r="NE35" s="0"/>
+      <c r="NF35" s="0"/>
+      <c r="NG35" s="0"/>
+      <c r="NH35" s="0"/>
+      <c r="NI35" s="0"/>
+      <c r="NJ35" s="0"/>
+      <c r="NK35" s="0"/>
+      <c r="NL35" s="0"/>
+      <c r="NM35" s="0"/>
+      <c r="NN35" s="0"/>
+      <c r="NO35" s="0"/>
+      <c r="NP35" s="0"/>
+      <c r="NQ35" s="0"/>
+      <c r="NR35" s="0"/>
+      <c r="NS35" s="0"/>
+      <c r="NT35" s="0"/>
+      <c r="NU35" s="0"/>
+      <c r="NV35" s="0"/>
+      <c r="NW35" s="0"/>
+      <c r="NX35" s="0"/>
+      <c r="NY35" s="0"/>
+      <c r="NZ35" s="0"/>
+      <c r="OA35" s="0"/>
+      <c r="OB35" s="0"/>
+      <c r="OC35" s="0"/>
+      <c r="OD35" s="0"/>
+      <c r="OE35" s="0"/>
+      <c r="OF35" s="0"/>
+      <c r="OG35" s="0"/>
+      <c r="OH35" s="0"/>
+      <c r="OI35" s="0"/>
+      <c r="OJ35" s="0"/>
+      <c r="OK35" s="0"/>
+      <c r="OL35" s="0"/>
+      <c r="OM35" s="0"/>
+      <c r="ON35" s="0"/>
+      <c r="OO35" s="0"/>
+      <c r="OP35" s="0"/>
+      <c r="OQ35" s="0"/>
+      <c r="OR35" s="0"/>
+      <c r="OS35" s="0"/>
+      <c r="OT35" s="0"/>
+      <c r="OU35" s="0"/>
+      <c r="OV35" s="0"/>
+      <c r="OW35" s="0"/>
+      <c r="OX35" s="0"/>
+      <c r="OY35" s="0"/>
+      <c r="OZ35" s="0"/>
+      <c r="PA35" s="0"/>
+      <c r="PB35" s="0"/>
+      <c r="PC35" s="0"/>
+      <c r="PD35" s="0"/>
+      <c r="PE35" s="0"/>
+      <c r="PF35" s="0"/>
+      <c r="PG35" s="0"/>
+      <c r="PH35" s="0"/>
+      <c r="PI35" s="0"/>
+      <c r="PJ35" s="0"/>
+      <c r="PK35" s="0"/>
+      <c r="PL35" s="0"/>
+      <c r="PM35" s="0"/>
+      <c r="PN35" s="0"/>
+      <c r="PO35" s="0"/>
+      <c r="PP35" s="0"/>
+      <c r="PQ35" s="0"/>
+      <c r="PR35" s="0"/>
+      <c r="PS35" s="0"/>
+      <c r="PT35" s="0"/>
+      <c r="PU35" s="0"/>
+      <c r="PV35" s="0"/>
+      <c r="PW35" s="0"/>
+      <c r="PX35" s="0"/>
+      <c r="PY35" s="0"/>
+      <c r="PZ35" s="0"/>
+      <c r="QA35" s="0"/>
+      <c r="QB35" s="0"/>
+      <c r="QC35" s="0"/>
+      <c r="QD35" s="0"/>
+      <c r="QE35" s="0"/>
+      <c r="QF35" s="0"/>
+      <c r="QG35" s="0"/>
+      <c r="QH35" s="0"/>
+      <c r="QI35" s="0"/>
+      <c r="QJ35" s="0"/>
+      <c r="QK35" s="0"/>
+      <c r="QL35" s="0"/>
+      <c r="QM35" s="0"/>
+      <c r="QN35" s="0"/>
+      <c r="QO35" s="0"/>
+      <c r="QP35" s="0"/>
+      <c r="QQ35" s="0"/>
+      <c r="QR35" s="0"/>
+      <c r="QS35" s="0"/>
+      <c r="QT35" s="0"/>
+      <c r="QU35" s="0"/>
+      <c r="QV35" s="0"/>
+      <c r="QW35" s="0"/>
+      <c r="QX35" s="0"/>
+      <c r="QY35" s="0"/>
+      <c r="QZ35" s="0"/>
+      <c r="RA35" s="0"/>
+      <c r="RB35" s="0"/>
+      <c r="RC35" s="0"/>
+      <c r="RD35" s="0"/>
+      <c r="RE35" s="0"/>
+      <c r="RF35" s="0"/>
+      <c r="RG35" s="0"/>
+      <c r="RH35" s="0"/>
+      <c r="RI35" s="0"/>
+      <c r="RJ35" s="0"/>
+      <c r="RK35" s="0"/>
+      <c r="RL35" s="0"/>
+      <c r="RM35" s="0"/>
+      <c r="RN35" s="0"/>
+      <c r="RO35" s="0"/>
+      <c r="RP35" s="0"/>
+      <c r="RQ35" s="0"/>
+      <c r="RR35" s="0"/>
+      <c r="RS35" s="0"/>
+      <c r="RT35" s="0"/>
+      <c r="RU35" s="0"/>
+      <c r="RV35" s="0"/>
+      <c r="RW35" s="0"/>
+      <c r="RX35" s="0"/>
+      <c r="RY35" s="0"/>
+      <c r="RZ35" s="0"/>
+      <c r="SA35" s="0"/>
+      <c r="SB35" s="0"/>
+      <c r="SC35" s="0"/>
+      <c r="SD35" s="0"/>
+      <c r="SE35" s="0"/>
+      <c r="SF35" s="0"/>
+      <c r="SG35" s="0"/>
+      <c r="SH35" s="0"/>
+      <c r="SI35" s="0"/>
+      <c r="SJ35" s="0"/>
+      <c r="SK35" s="0"/>
+      <c r="SL35" s="0"/>
+      <c r="SM35" s="0"/>
+      <c r="SN35" s="0"/>
+      <c r="SO35" s="0"/>
+      <c r="SP35" s="0"/>
+      <c r="SQ35" s="0"/>
+      <c r="SR35" s="0"/>
+      <c r="SS35" s="0"/>
+      <c r="ST35" s="0"/>
+      <c r="SU35" s="0"/>
+      <c r="SV35" s="0"/>
+      <c r="SW35" s="0"/>
+      <c r="SX35" s="0"/>
+      <c r="SY35" s="0"/>
+      <c r="SZ35" s="0"/>
+      <c r="TA35" s="0"/>
+      <c r="TB35" s="0"/>
+      <c r="TC35" s="0"/>
+      <c r="TD35" s="0"/>
+      <c r="TE35" s="0"/>
+      <c r="TF35" s="0"/>
+      <c r="TG35" s="0"/>
+      <c r="TH35" s="0"/>
+      <c r="TI35" s="0"/>
+      <c r="TJ35" s="0"/>
+      <c r="TK35" s="0"/>
+      <c r="TL35" s="0"/>
+      <c r="TM35" s="0"/>
+      <c r="TN35" s="0"/>
+      <c r="TO35" s="0"/>
+      <c r="TP35" s="0"/>
+      <c r="TQ35" s="0"/>
+      <c r="TR35" s="0"/>
+      <c r="TS35" s="0"/>
+      <c r="TT35" s="0"/>
+      <c r="TU35" s="0"/>
+      <c r="TV35" s="0"/>
+      <c r="TW35" s="0"/>
+      <c r="TX35" s="0"/>
+      <c r="TY35" s="0"/>
+      <c r="TZ35" s="0"/>
+      <c r="UA35" s="0"/>
+      <c r="UB35" s="0"/>
+      <c r="UC35" s="0"/>
+      <c r="UD35" s="0"/>
+      <c r="UE35" s="0"/>
+      <c r="UF35" s="0"/>
+      <c r="UG35" s="0"/>
+      <c r="UH35" s="0"/>
+      <c r="UI35" s="0"/>
+      <c r="UJ35" s="0"/>
+      <c r="UK35" s="0"/>
+      <c r="UL35" s="0"/>
+      <c r="UM35" s="0"/>
+      <c r="UN35" s="0"/>
+      <c r="UO35" s="0"/>
+      <c r="UP35" s="0"/>
+      <c r="UQ35" s="0"/>
+      <c r="UR35" s="0"/>
+      <c r="US35" s="0"/>
+      <c r="UT35" s="0"/>
+      <c r="UU35" s="0"/>
+      <c r="UV35" s="0"/>
+      <c r="UW35" s="0"/>
+      <c r="UX35" s="0"/>
+      <c r="UY35" s="0"/>
+      <c r="UZ35" s="0"/>
+      <c r="VA35" s="0"/>
+      <c r="VB35" s="0"/>
+      <c r="VC35" s="0"/>
+      <c r="VD35" s="0"/>
+      <c r="VE35" s="0"/>
+      <c r="VF35" s="0"/>
+      <c r="VG35" s="0"/>
+      <c r="VH35" s="0"/>
+      <c r="VI35" s="0"/>
+      <c r="VJ35" s="0"/>
+      <c r="VK35" s="0"/>
+      <c r="VL35" s="0"/>
+      <c r="VM35" s="0"/>
+      <c r="VN35" s="0"/>
+      <c r="VO35" s="0"/>
+      <c r="VP35" s="0"/>
+      <c r="VQ35" s="0"/>
+      <c r="VR35" s="0"/>
+      <c r="VS35" s="0"/>
+      <c r="VT35" s="0"/>
+      <c r="VU35" s="0"/>
+      <c r="VV35" s="0"/>
+      <c r="VW35" s="0"/>
+      <c r="VX35" s="0"/>
+      <c r="VY35" s="0"/>
+      <c r="VZ35" s="0"/>
+      <c r="WA35" s="0"/>
+      <c r="WB35" s="0"/>
+      <c r="WC35" s="0"/>
+      <c r="WD35" s="0"/>
+      <c r="WE35" s="0"/>
+      <c r="WF35" s="0"/>
+      <c r="WG35" s="0"/>
+      <c r="WH35" s="0"/>
+      <c r="WI35" s="0"/>
+      <c r="WJ35" s="0"/>
+      <c r="WK35" s="0"/>
+      <c r="WL35" s="0"/>
+      <c r="WM35" s="0"/>
+      <c r="WN35" s="0"/>
+      <c r="WO35" s="0"/>
+      <c r="WP35" s="0"/>
+      <c r="WQ35" s="0"/>
+      <c r="WR35" s="0"/>
+      <c r="WS35" s="0"/>
+      <c r="WT35" s="0"/>
+      <c r="WU35" s="0"/>
+      <c r="WV35" s="0"/>
+      <c r="WW35" s="0"/>
+      <c r="WX35" s="0"/>
+      <c r="WY35" s="0"/>
+      <c r="WZ35" s="0"/>
+      <c r="XA35" s="0"/>
+      <c r="XB35" s="0"/>
+      <c r="XC35" s="0"/>
+      <c r="XD35" s="0"/>
+      <c r="XE35" s="0"/>
+      <c r="XF35" s="0"/>
+      <c r="XG35" s="0"/>
+      <c r="XH35" s="0"/>
+      <c r="XI35" s="0"/>
+      <c r="XJ35" s="0"/>
+      <c r="XK35" s="0"/>
+      <c r="XL35" s="0"/>
+      <c r="XM35" s="0"/>
+      <c r="XN35" s="0"/>
+      <c r="XO35" s="0"/>
+      <c r="XP35" s="0"/>
+      <c r="XQ35" s="0"/>
+      <c r="XR35" s="0"/>
+      <c r="XS35" s="0"/>
+      <c r="XT35" s="0"/>
+      <c r="XU35" s="0"/>
+      <c r="XV35" s="0"/>
+      <c r="XW35" s="0"/>
+      <c r="XX35" s="0"/>
+      <c r="XY35" s="0"/>
+      <c r="XZ35" s="0"/>
+      <c r="YA35" s="0"/>
+      <c r="YB35" s="0"/>
+      <c r="YC35" s="0"/>
+      <c r="YD35" s="0"/>
+      <c r="YE35" s="0"/>
+      <c r="YF35" s="0"/>
+      <c r="YG35" s="0"/>
+      <c r="YH35" s="0"/>
+      <c r="YI35" s="0"/>
+      <c r="YJ35" s="0"/>
+      <c r="YK35" s="0"/>
+      <c r="YL35" s="0"/>
+      <c r="YM35" s="0"/>
+      <c r="YN35" s="0"/>
+      <c r="YO35" s="0"/>
+      <c r="YP35" s="0"/>
+      <c r="YQ35" s="0"/>
+      <c r="YR35" s="0"/>
+      <c r="YS35" s="0"/>
+      <c r="YT35" s="0"/>
+      <c r="YU35" s="0"/>
+      <c r="YV35" s="0"/>
+      <c r="YW35" s="0"/>
+      <c r="YX35" s="0"/>
+      <c r="YY35" s="0"/>
+      <c r="YZ35" s="0"/>
+      <c r="ZA35" s="0"/>
+      <c r="ZB35" s="0"/>
+      <c r="ZC35" s="0"/>
+      <c r="ZD35" s="0"/>
+      <c r="ZE35" s="0"/>
+      <c r="ZF35" s="0"/>
+      <c r="ZG35" s="0"/>
+      <c r="ZH35" s="0"/>
+      <c r="ZI35" s="0"/>
+      <c r="ZJ35" s="0"/>
+      <c r="ZK35" s="0"/>
+      <c r="ZL35" s="0"/>
+      <c r="ZM35" s="0"/>
+      <c r="ZN35" s="0"/>
+      <c r="ZO35" s="0"/>
+      <c r="ZP35" s="0"/>
+      <c r="ZQ35" s="0"/>
+      <c r="ZR35" s="0"/>
+      <c r="ZS35" s="0"/>
+      <c r="ZT35" s="0"/>
+      <c r="ZU35" s="0"/>
+      <c r="ZV35" s="0"/>
+      <c r="ZW35" s="0"/>
+      <c r="ZX35" s="0"/>
+      <c r="ZY35" s="0"/>
+      <c r="ZZ35" s="0"/>
+      <c r="AAA35" s="0"/>
+      <c r="AAB35" s="0"/>
+      <c r="AAC35" s="0"/>
+      <c r="AAD35" s="0"/>
+      <c r="AAE35" s="0"/>
+      <c r="AAF35" s="0"/>
+      <c r="AAG35" s="0"/>
+      <c r="AAH35" s="0"/>
+      <c r="AAI35" s="0"/>
+      <c r="AAJ35" s="0"/>
+      <c r="AAK35" s="0"/>
+      <c r="AAL35" s="0"/>
+      <c r="AAM35" s="0"/>
+      <c r="AAN35" s="0"/>
+      <c r="AAO35" s="0"/>
+      <c r="AAP35" s="0"/>
+      <c r="AAQ35" s="0"/>
+      <c r="AAR35" s="0"/>
+      <c r="AAS35" s="0"/>
+      <c r="AAT35" s="0"/>
+      <c r="AAU35" s="0"/>
+      <c r="AAV35" s="0"/>
+      <c r="AAW35" s="0"/>
+      <c r="AAX35" s="0"/>
+      <c r="AAY35" s="0"/>
+      <c r="AAZ35" s="0"/>
+      <c r="ABA35" s="0"/>
+      <c r="ABB35" s="0"/>
+      <c r="ABC35" s="0"/>
+      <c r="ABD35" s="0"/>
+      <c r="ABE35" s="0"/>
+      <c r="ABF35" s="0"/>
+      <c r="ABG35" s="0"/>
+      <c r="ABH35" s="0"/>
+      <c r="ABI35" s="0"/>
+      <c r="ABJ35" s="0"/>
+      <c r="ABK35" s="0"/>
+      <c r="ABL35" s="0"/>
+      <c r="ABM35" s="0"/>
+      <c r="ABN35" s="0"/>
+      <c r="ABO35" s="0"/>
+      <c r="ABP35" s="0"/>
+      <c r="ABQ35" s="0"/>
+      <c r="ABR35" s="0"/>
+      <c r="ABS35" s="0"/>
+      <c r="ABT35" s="0"/>
+      <c r="ABU35" s="0"/>
+      <c r="ABV35" s="0"/>
+      <c r="ABW35" s="0"/>
+      <c r="ABX35" s="0"/>
+      <c r="ABY35" s="0"/>
+      <c r="ABZ35" s="0"/>
+      <c r="ACA35" s="0"/>
+      <c r="ACB35" s="0"/>
+      <c r="ACC35" s="0"/>
+      <c r="ACD35" s="0"/>
+      <c r="ACE35" s="0"/>
+      <c r="ACF35" s="0"/>
+      <c r="ACG35" s="0"/>
+      <c r="ACH35" s="0"/>
+      <c r="ACI35" s="0"/>
+      <c r="ACJ35" s="0"/>
+      <c r="ACK35" s="0"/>
+      <c r="ACL35" s="0"/>
+      <c r="ACM35" s="0"/>
+      <c r="ACN35" s="0"/>
+      <c r="ACO35" s="0"/>
+      <c r="ACP35" s="0"/>
+      <c r="ACQ35" s="0"/>
+      <c r="ACR35" s="0"/>
+      <c r="ACS35" s="0"/>
+      <c r="ACT35" s="0"/>
+      <c r="ACU35" s="0"/>
+      <c r="ACV35" s="0"/>
+      <c r="ACW35" s="0"/>
+      <c r="ACX35" s="0"/>
+      <c r="ACY35" s="0"/>
+      <c r="ACZ35" s="0"/>
+      <c r="ADA35" s="0"/>
+      <c r="ADB35" s="0"/>
+      <c r="ADC35" s="0"/>
+      <c r="ADD35" s="0"/>
+      <c r="ADE35" s="0"/>
+      <c r="ADF35" s="0"/>
+      <c r="ADG35" s="0"/>
+      <c r="ADH35" s="0"/>
+      <c r="ADI35" s="0"/>
+      <c r="ADJ35" s="0"/>
+      <c r="ADK35" s="0"/>
+      <c r="ADL35" s="0"/>
+      <c r="ADM35" s="0"/>
+      <c r="ADN35" s="0"/>
+      <c r="ADO35" s="0"/>
+      <c r="ADP35" s="0"/>
+      <c r="ADQ35" s="0"/>
+      <c r="ADR35" s="0"/>
+      <c r="ADS35" s="0"/>
+      <c r="ADT35" s="0"/>
+      <c r="ADU35" s="0"/>
+      <c r="ADV35" s="0"/>
+      <c r="ADW35" s="0"/>
+      <c r="ADX35" s="0"/>
+      <c r="ADY35" s="0"/>
+      <c r="ADZ35" s="0"/>
+      <c r="AEA35" s="0"/>
+      <c r="AEB35" s="0"/>
+      <c r="AEC35" s="0"/>
+      <c r="AED35" s="0"/>
+      <c r="AEE35" s="0"/>
+      <c r="AEF35" s="0"/>
+      <c r="AEG35" s="0"/>
+      <c r="AEH35" s="0"/>
+      <c r="AEI35" s="0"/>
+      <c r="AEJ35" s="0"/>
+      <c r="AEK35" s="0"/>
+      <c r="AEL35" s="0"/>
+      <c r="AEM35" s="0"/>
+      <c r="AEN35" s="0"/>
+      <c r="AEO35" s="0"/>
+      <c r="AEP35" s="0"/>
+      <c r="AEQ35" s="0"/>
+      <c r="AER35" s="0"/>
+      <c r="AES35" s="0"/>
+      <c r="AET35" s="0"/>
+      <c r="AEU35" s="0"/>
+      <c r="AEV35" s="0"/>
+      <c r="AEW35" s="0"/>
+      <c r="AEX35" s="0"/>
+      <c r="AEY35" s="0"/>
+      <c r="AEZ35" s="0"/>
+      <c r="AFA35" s="0"/>
+      <c r="AFB35" s="0"/>
+      <c r="AFC35" s="0"/>
+      <c r="AFD35" s="0"/>
+      <c r="AFE35" s="0"/>
+      <c r="AFF35" s="0"/>
+      <c r="AFG35" s="0"/>
+      <c r="AFH35" s="0"/>
+      <c r="AFI35" s="0"/>
+      <c r="AFJ35" s="0"/>
+      <c r="AFK35" s="0"/>
+      <c r="AFL35" s="0"/>
+      <c r="AFM35" s="0"/>
+      <c r="AFN35" s="0"/>
+      <c r="AFO35" s="0"/>
+      <c r="AFP35" s="0"/>
+      <c r="AFQ35" s="0"/>
+      <c r="AFR35" s="0"/>
+      <c r="AFS35" s="0"/>
+      <c r="AFT35" s="0"/>
+      <c r="AFU35" s="0"/>
+      <c r="AFV35" s="0"/>
+      <c r="AFW35" s="0"/>
+      <c r="AFX35" s="0"/>
+      <c r="AFY35" s="0"/>
+      <c r="AFZ35" s="0"/>
+      <c r="AGA35" s="0"/>
+      <c r="AGB35" s="0"/>
+      <c r="AGC35" s="0"/>
+      <c r="AGD35" s="0"/>
+      <c r="AGE35" s="0"/>
+      <c r="AGF35" s="0"/>
+      <c r="AGG35" s="0"/>
+      <c r="AGH35" s="0"/>
+      <c r="AGI35" s="0"/>
+      <c r="AGJ35" s="0"/>
+      <c r="AGK35" s="0"/>
+      <c r="AGL35" s="0"/>
+      <c r="AGM35" s="0"/>
+      <c r="AGN35" s="0"/>
+      <c r="AGO35" s="0"/>
+      <c r="AGP35" s="0"/>
+      <c r="AGQ35" s="0"/>
+      <c r="AGR35" s="0"/>
+      <c r="AGS35" s="0"/>
+      <c r="AGT35" s="0"/>
+      <c r="AGU35" s="0"/>
+      <c r="AGV35" s="0"/>
+      <c r="AGW35" s="0"/>
+      <c r="AGX35" s="0"/>
+      <c r="AGY35" s="0"/>
+      <c r="AGZ35" s="0"/>
+      <c r="AHA35" s="0"/>
+      <c r="AHB35" s="0"/>
+      <c r="AHC35" s="0"/>
+      <c r="AHD35" s="0"/>
+      <c r="AHE35" s="0"/>
+      <c r="AHF35" s="0"/>
+      <c r="AHG35" s="0"/>
+      <c r="AHH35" s="0"/>
+      <c r="AHI35" s="0"/>
+      <c r="AHJ35" s="0"/>
+      <c r="AHK35" s="0"/>
+      <c r="AHL35" s="0"/>
+      <c r="AHM35" s="0"/>
+      <c r="AHN35" s="0"/>
+      <c r="AHO35" s="0"/>
+      <c r="AHP35" s="0"/>
+      <c r="AHQ35" s="0"/>
+      <c r="AHR35" s="0"/>
+      <c r="AHS35" s="0"/>
+      <c r="AHT35" s="0"/>
+      <c r="AHU35" s="0"/>
+      <c r="AHV35" s="0"/>
+      <c r="AHW35" s="0"/>
+      <c r="AHX35" s="0"/>
+      <c r="AHY35" s="0"/>
+      <c r="AHZ35" s="0"/>
+      <c r="AIA35" s="0"/>
+      <c r="AIB35" s="0"/>
+      <c r="AIC35" s="0"/>
+      <c r="AID35" s="0"/>
+      <c r="AIE35" s="0"/>
+      <c r="AIF35" s="0"/>
+      <c r="AIG35" s="0"/>
+      <c r="AIH35" s="0"/>
+      <c r="AII35" s="0"/>
+      <c r="AIJ35" s="0"/>
+      <c r="AIK35" s="0"/>
+      <c r="AIL35" s="0"/>
+      <c r="AIM35" s="0"/>
+      <c r="AIN35" s="0"/>
+      <c r="AIO35" s="0"/>
+      <c r="AIP35" s="0"/>
+      <c r="AIQ35" s="0"/>
+      <c r="AIR35" s="0"/>
+      <c r="AIS35" s="0"/>
+      <c r="AIT35" s="0"/>
+      <c r="AIU35" s="0"/>
+      <c r="AIV35" s="0"/>
+      <c r="AIW35" s="0"/>
+      <c r="AIX35" s="0"/>
+      <c r="AIY35" s="0"/>
+      <c r="AIZ35" s="0"/>
+      <c r="AJA35" s="0"/>
+      <c r="AJB35" s="0"/>
+      <c r="AJC35" s="0"/>
+      <c r="AJD35" s="0"/>
+      <c r="AJE35" s="0"/>
+      <c r="AJF35" s="0"/>
+      <c r="AJG35" s="0"/>
+      <c r="AJH35" s="0"/>
+      <c r="AJI35" s="0"/>
+      <c r="AJJ35" s="0"/>
+      <c r="AJK35" s="0"/>
+      <c r="AJL35" s="0"/>
+      <c r="AJM35" s="0"/>
+      <c r="AJN35" s="0"/>
+      <c r="AJO35" s="0"/>
+      <c r="AJP35" s="0"/>
+      <c r="AJQ35" s="0"/>
+      <c r="AJR35" s="0"/>
+      <c r="AJS35" s="0"/>
+      <c r="AJT35" s="0"/>
+      <c r="AJU35" s="0"/>
+      <c r="AJV35" s="0"/>
+      <c r="AJW35" s="0"/>
+      <c r="AJX35" s="0"/>
+      <c r="AJY35" s="0"/>
+      <c r="AJZ35" s="0"/>
+      <c r="AKA35" s="0"/>
+      <c r="AKB35" s="0"/>
+      <c r="AKC35" s="0"/>
+      <c r="AKD35" s="0"/>
+      <c r="AKE35" s="0"/>
+      <c r="AKF35" s="0"/>
+      <c r="AKG35" s="0"/>
+      <c r="AKH35" s="0"/>
+      <c r="AKI35" s="0"/>
+      <c r="AKJ35" s="0"/>
+      <c r="AKK35" s="0"/>
+      <c r="AKL35" s="0"/>
+      <c r="AKM35" s="0"/>
+      <c r="AKN35" s="0"/>
+      <c r="AKO35" s="0"/>
+      <c r="AKP35" s="0"/>
+      <c r="AKQ35" s="0"/>
+      <c r="AKR35" s="0"/>
+      <c r="AKS35" s="0"/>
+      <c r="AKT35" s="0"/>
+      <c r="AKU35" s="0"/>
+      <c r="AKV35" s="0"/>
+      <c r="AKW35" s="0"/>
+      <c r="AKX35" s="0"/>
+      <c r="AKY35" s="0"/>
+      <c r="AKZ35" s="0"/>
+      <c r="ALA35" s="0"/>
+      <c r="ALB35" s="0"/>
+      <c r="ALC35" s="0"/>
+      <c r="ALD35" s="0"/>
+      <c r="ALE35" s="0"/>
+      <c r="ALF35" s="0"/>
+      <c r="ALG35" s="0"/>
+      <c r="ALH35" s="0"/>
+      <c r="ALI35" s="0"/>
+      <c r="ALJ35" s="0"/>
+      <c r="ALK35" s="0"/>
+      <c r="ALL35" s="0"/>
+      <c r="ALM35" s="0"/>
+      <c r="ALN35" s="0"/>
+      <c r="ALO35" s="0"/>
+      <c r="ALP35" s="0"/>
+      <c r="ALQ35" s="0"/>
+      <c r="ALR35" s="0"/>
+      <c r="ALS35" s="0"/>
+      <c r="ALT35" s="0"/>
+      <c r="ALU35" s="0"/>
+      <c r="ALV35" s="0"/>
+      <c r="ALW35" s="0"/>
+      <c r="ALX35" s="0"/>
+      <c r="ALY35" s="0"/>
+      <c r="ALZ35" s="0"/>
+      <c r="AMA35" s="0"/>
+      <c r="AMB35" s="0"/>
+      <c r="AMC35" s="0"/>
+      <c r="AMD35" s="0"/>
+      <c r="AME35" s="0"/>
+      <c r="AMF35" s="0"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>51</v>
@@ -5753,45 +6830,59 @@
         <v>75</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>58</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="32"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="31"/>
+      <c r="M36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="R36" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="T36" s="31"/>
       <c r="U36" s="33"/>
       <c r="V36" s="34"/>
       <c r="W36" s="35" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>51</v>
@@ -5800,49 +6891,31 @@
         <v>75</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>45545</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="K37" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="L37" s="32"/>
-      <c r="M37" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O37" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P37" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q37" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R37" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S37" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="31"/>
       <c r="T37" s="31"/>
       <c r="U37" s="33"/>
       <c r="V37" s="34"/>
@@ -5852,7 +6925,7 @@
     </row>
     <row r="38" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>51</v>
@@ -5861,31 +6934,49 @@
         <v>75</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>45545</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="G38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="J38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="32"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="31"/>
+      <c r="R38" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="T38" s="31"/>
       <c r="U38" s="33"/>
       <c r="V38" s="34"/>
@@ -5895,7 +6986,7 @@
     </row>
     <row r="39" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>51</v>
@@ -5904,22 +6995,22 @@
         <v>75</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G39" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="J39" s="31" t="s">
         <v>58</v>
@@ -5956,7 +7047,7 @@
     </row>
     <row r="40" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>51</v>
@@ -5965,22 +7056,22 @@
         <v>75</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G40" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>58</v>
@@ -6015,9 +7106,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>51</v>
@@ -6026,22 +7117,22 @@
         <v>75</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>58</v>
@@ -6076,9 +7167,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>51</v>
@@ -6087,49 +7178,29 @@
         <v>75</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="30" t="n">
-        <v>45545</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="K42" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="L42" s="32"/>
-      <c r="M42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O42" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R42" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S42" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="31"/>
       <c r="T42" s="31"/>
       <c r="U42" s="33"/>
       <c r="V42" s="34"/>
@@ -6137,9 +7208,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>51</v>
@@ -6148,29 +7219,49 @@
         <v>75</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+        <v>203</v>
+      </c>
+      <c r="F43" s="30" t="n">
+        <v>45545</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="J43" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K43" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L43" s="32"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="31"/>
+      <c r="R43" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="T43" s="31"/>
       <c r="U43" s="33"/>
       <c r="V43" s="34"/>
@@ -6180,7 +7271,7 @@
     </row>
     <row r="44" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>51</v>
@@ -6189,49 +7280,29 @@
         <v>75</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="30" t="n">
-        <v>45545</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="L44" s="32"/>
-      <c r="M44" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N44" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O44" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P44" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q44" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R44" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S44" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="31"/>
       <c r="T44" s="31"/>
       <c r="U44" s="33"/>
       <c r="V44" s="34"/>
@@ -6241,7 +7312,7 @@
     </row>
     <row r="45" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>51</v>
@@ -6250,29 +7321,49 @@
         <v>75</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
+        <v>210</v>
+      </c>
+      <c r="F45" s="30" t="n">
+        <v>45545</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="J45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="31"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K45" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L45" s="32"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="31"/>
+      <c r="R45" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S45" s="31" t="s">
+        <v>104</v>
+      </c>
       <c r="T45" s="31"/>
       <c r="U45" s="33"/>
       <c r="V45" s="34"/>
@@ -6282,7 +7373,7 @@
     </row>
     <row r="46" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>51</v>
@@ -6291,22 +7382,22 @@
         <v>75</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="J46" s="31" t="s">
         <v>58</v>
@@ -6343,7 +7434,7 @@
     </row>
     <row r="47" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>51</v>
@@ -6352,22 +7443,22 @@
         <v>75</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G47" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="J47" s="31" t="s">
         <v>58</v>
@@ -6404,7 +7495,7 @@
     </row>
     <row r="48" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>51</v>
@@ -6413,22 +7504,22 @@
         <v>75</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G48" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="J48" s="31" t="s">
         <v>58</v>
@@ -6465,7 +7556,7 @@
     </row>
     <row r="49" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>51</v>
@@ -6474,22 +7565,22 @@
         <v>75</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G49" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="J49" s="31" t="s">
         <v>58</v>
@@ -6526,7 +7617,7 @@
     </row>
     <row r="50" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>51</v>
@@ -6535,22 +7626,22 @@
         <v>75</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="J50" s="31" t="s">
         <v>58</v>
@@ -6587,7 +7678,7 @@
     </row>
     <row r="51" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="27" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>51</v>
@@ -6596,49 +7687,29 @@
         <v>75</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="F51" s="30" t="n">
-        <v>45545</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="L51" s="32"/>
-      <c r="M51" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P51" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q51" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R51" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="S51" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="31"/>
       <c r="T51" s="31"/>
       <c r="U51" s="33"/>
       <c r="V51" s="34"/>
@@ -6646,113 +7717,2148 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="27" t="n">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
+        <v>242</v>
+      </c>
+      <c r="F52" s="30" t="n">
+        <v>45545</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="J52" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K52" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="L52" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="K52" s="31"/>
+      <c r="L52" s="46"/>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
       <c r="U52" s="33"/>
       <c r="V52" s="34"/>
       <c r="W52" s="35" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="n">
-        <v>372</v>
-      </c>
-      <c r="B53" s="28" t="s">
+      <c r="A53" s="47" t="n">
+        <v>444</v>
+      </c>
+      <c r="B53" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>249</v>
+      <c r="C53" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="49" t="s">
+        <v>247</v>
       </c>
       <c r="F53" s="30" t="n">
         <v>45545</v>
       </c>
       <c r="G53" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="J53" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="K53" s="31"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="35" t="s">
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="17"/>
+      <c r="X53" s="0"/>
+      <c r="Y53" s="0"/>
+      <c r="Z53" s="0"/>
+      <c r="AA53" s="0"/>
+      <c r="AB53" s="0"/>
+      <c r="AC53" s="0"/>
+      <c r="AD53" s="0"/>
+      <c r="AE53" s="0"/>
+      <c r="AF53" s="0"/>
+      <c r="AG53" s="0"/>
+      <c r="AH53" s="0"/>
+      <c r="AI53" s="0"/>
+      <c r="AJ53" s="0"/>
+      <c r="AK53" s="0"/>
+      <c r="AL53" s="0"/>
+      <c r="AM53" s="0"/>
+      <c r="AN53" s="0"/>
+      <c r="AO53" s="0"/>
+      <c r="AP53" s="0"/>
+      <c r="AQ53" s="0"/>
+      <c r="AR53" s="0"/>
+      <c r="AS53" s="0"/>
+      <c r="AT53" s="0"/>
+      <c r="AU53" s="0"/>
+      <c r="AV53" s="0"/>
+      <c r="AW53" s="0"/>
+      <c r="AX53" s="0"/>
+      <c r="AY53" s="0"/>
+      <c r="AZ53" s="0"/>
+      <c r="BA53" s="0"/>
+      <c r="BB53" s="0"/>
+      <c r="BC53" s="0"/>
+      <c r="BD53" s="0"/>
+      <c r="BE53" s="0"/>
+      <c r="BF53" s="0"/>
+      <c r="BG53" s="0"/>
+      <c r="BH53" s="0"/>
+      <c r="BI53" s="0"/>
+      <c r="BJ53" s="0"/>
+      <c r="BK53" s="0"/>
+      <c r="BL53" s="0"/>
+      <c r="BM53" s="0"/>
+      <c r="BN53" s="0"/>
+      <c r="BO53" s="0"/>
+      <c r="BP53" s="0"/>
+      <c r="BQ53" s="0"/>
+      <c r="BR53" s="0"/>
+      <c r="BS53" s="0"/>
+      <c r="BT53" s="0"/>
+      <c r="BU53" s="0"/>
+      <c r="BV53" s="0"/>
+      <c r="BW53" s="0"/>
+      <c r="BX53" s="0"/>
+      <c r="BY53" s="0"/>
+      <c r="BZ53" s="0"/>
+      <c r="CA53" s="0"/>
+      <c r="CB53" s="0"/>
+      <c r="CC53" s="0"/>
+      <c r="CD53" s="0"/>
+      <c r="CE53" s="0"/>
+      <c r="CF53" s="0"/>
+      <c r="CG53" s="0"/>
+      <c r="CH53" s="0"/>
+      <c r="CI53" s="0"/>
+      <c r="CJ53" s="0"/>
+      <c r="CK53" s="0"/>
+      <c r="CL53" s="0"/>
+      <c r="CM53" s="0"/>
+      <c r="CN53" s="0"/>
+      <c r="CO53" s="0"/>
+      <c r="CP53" s="0"/>
+      <c r="CQ53" s="0"/>
+      <c r="CR53" s="0"/>
+      <c r="CS53" s="0"/>
+      <c r="CT53" s="0"/>
+      <c r="CU53" s="0"/>
+      <c r="CV53" s="0"/>
+      <c r="CW53" s="0"/>
+      <c r="CX53" s="0"/>
+      <c r="CY53" s="0"/>
+      <c r="CZ53" s="0"/>
+      <c r="DA53" s="0"/>
+      <c r="DB53" s="0"/>
+      <c r="DC53" s="0"/>
+      <c r="DD53" s="0"/>
+      <c r="DE53" s="0"/>
+      <c r="DF53" s="0"/>
+      <c r="DG53" s="0"/>
+      <c r="DH53" s="0"/>
+      <c r="DI53" s="0"/>
+      <c r="DJ53" s="0"/>
+      <c r="DK53" s="0"/>
+      <c r="DL53" s="0"/>
+      <c r="DM53" s="0"/>
+      <c r="DN53" s="0"/>
+      <c r="DO53" s="0"/>
+      <c r="DP53" s="0"/>
+      <c r="DQ53" s="0"/>
+      <c r="DR53" s="0"/>
+      <c r="DS53" s="0"/>
+      <c r="DT53" s="0"/>
+      <c r="DU53" s="0"/>
+      <c r="DV53" s="0"/>
+      <c r="DW53" s="0"/>
+      <c r="DX53" s="0"/>
+      <c r="DY53" s="0"/>
+      <c r="DZ53" s="0"/>
+      <c r="EA53" s="0"/>
+      <c r="EB53" s="0"/>
+      <c r="EC53" s="0"/>
+      <c r="ED53" s="0"/>
+      <c r="EE53" s="0"/>
+      <c r="EF53" s="0"/>
+      <c r="EG53" s="0"/>
+      <c r="EH53" s="0"/>
+      <c r="EI53" s="0"/>
+      <c r="EJ53" s="0"/>
+      <c r="EK53" s="0"/>
+      <c r="EL53" s="0"/>
+      <c r="EM53" s="0"/>
+      <c r="EN53" s="0"/>
+      <c r="EO53" s="0"/>
+      <c r="EP53" s="0"/>
+      <c r="EQ53" s="0"/>
+      <c r="ER53" s="0"/>
+      <c r="ES53" s="0"/>
+      <c r="ET53" s="0"/>
+      <c r="EU53" s="0"/>
+      <c r="EV53" s="0"/>
+      <c r="EW53" s="0"/>
+      <c r="EX53" s="0"/>
+      <c r="EY53" s="0"/>
+      <c r="EZ53" s="0"/>
+      <c r="FA53" s="0"/>
+      <c r="FB53" s="0"/>
+      <c r="FC53" s="0"/>
+      <c r="FD53" s="0"/>
+      <c r="FE53" s="0"/>
+      <c r="FF53" s="0"/>
+      <c r="FG53" s="0"/>
+      <c r="FH53" s="0"/>
+      <c r="FI53" s="0"/>
+      <c r="FJ53" s="0"/>
+      <c r="FK53" s="0"/>
+      <c r="FL53" s="0"/>
+      <c r="FM53" s="0"/>
+      <c r="FN53" s="0"/>
+      <c r="FO53" s="0"/>
+      <c r="FP53" s="0"/>
+      <c r="FQ53" s="0"/>
+      <c r="FR53" s="0"/>
+      <c r="FS53" s="0"/>
+      <c r="FT53" s="0"/>
+      <c r="FU53" s="0"/>
+      <c r="FV53" s="0"/>
+      <c r="FW53" s="0"/>
+      <c r="FX53" s="0"/>
+      <c r="FY53" s="0"/>
+      <c r="FZ53" s="0"/>
+      <c r="GA53" s="0"/>
+      <c r="GB53" s="0"/>
+      <c r="GC53" s="0"/>
+      <c r="GD53" s="0"/>
+      <c r="GE53" s="0"/>
+      <c r="GF53" s="0"/>
+      <c r="GG53" s="0"/>
+      <c r="GH53" s="0"/>
+      <c r="GI53" s="0"/>
+      <c r="GJ53" s="0"/>
+      <c r="GK53" s="0"/>
+      <c r="GL53" s="0"/>
+      <c r="GM53" s="0"/>
+      <c r="GN53" s="0"/>
+      <c r="GO53" s="0"/>
+      <c r="GP53" s="0"/>
+      <c r="GQ53" s="0"/>
+      <c r="GR53" s="0"/>
+      <c r="GS53" s="0"/>
+      <c r="GT53" s="0"/>
+      <c r="GU53" s="0"/>
+      <c r="GV53" s="0"/>
+      <c r="GW53" s="0"/>
+      <c r="GX53" s="0"/>
+      <c r="GY53" s="0"/>
+      <c r="GZ53" s="0"/>
+      <c r="HA53" s="0"/>
+      <c r="HB53" s="0"/>
+      <c r="HC53" s="0"/>
+      <c r="HD53" s="0"/>
+      <c r="HE53" s="0"/>
+      <c r="HF53" s="0"/>
+      <c r="HG53" s="0"/>
+      <c r="HH53" s="0"/>
+      <c r="HI53" s="0"/>
+      <c r="HJ53" s="0"/>
+      <c r="HK53" s="0"/>
+      <c r="HL53" s="0"/>
+      <c r="HM53" s="0"/>
+      <c r="HN53" s="0"/>
+      <c r="HO53" s="0"/>
+      <c r="HP53" s="0"/>
+      <c r="HQ53" s="0"/>
+      <c r="HR53" s="0"/>
+      <c r="HS53" s="0"/>
+      <c r="HT53" s="0"/>
+      <c r="HU53" s="0"/>
+      <c r="HV53" s="0"/>
+      <c r="HW53" s="0"/>
+      <c r="HX53" s="0"/>
+      <c r="HY53" s="0"/>
+      <c r="HZ53" s="0"/>
+      <c r="IA53" s="0"/>
+      <c r="IB53" s="0"/>
+      <c r="IC53" s="0"/>
+      <c r="ID53" s="0"/>
+      <c r="IE53" s="0"/>
+      <c r="IF53" s="0"/>
+      <c r="IG53" s="0"/>
+      <c r="IH53" s="0"/>
+      <c r="II53" s="0"/>
+      <c r="IJ53" s="0"/>
+      <c r="IK53" s="0"/>
+      <c r="IL53" s="0"/>
+      <c r="IM53" s="0"/>
+      <c r="IN53" s="0"/>
+      <c r="IO53" s="0"/>
+      <c r="IP53" s="0"/>
+      <c r="IQ53" s="0"/>
+      <c r="IR53" s="0"/>
+      <c r="IS53" s="0"/>
+      <c r="IT53" s="0"/>
+      <c r="IU53" s="0"/>
+      <c r="IV53" s="0"/>
+      <c r="IW53" s="0"/>
+      <c r="IX53" s="0"/>
+      <c r="IY53" s="0"/>
+      <c r="IZ53" s="0"/>
+      <c r="JA53" s="0"/>
+      <c r="JB53" s="0"/>
+      <c r="JC53" s="0"/>
+      <c r="JD53" s="0"/>
+      <c r="JE53" s="0"/>
+      <c r="JF53" s="0"/>
+      <c r="JG53" s="0"/>
+      <c r="JH53" s="0"/>
+      <c r="JI53" s="0"/>
+      <c r="JJ53" s="0"/>
+      <c r="JK53" s="0"/>
+      <c r="JL53" s="0"/>
+      <c r="JM53" s="0"/>
+      <c r="JN53" s="0"/>
+      <c r="JO53" s="0"/>
+      <c r="JP53" s="0"/>
+      <c r="JQ53" s="0"/>
+      <c r="JR53" s="0"/>
+      <c r="JS53" s="0"/>
+      <c r="JT53" s="0"/>
+      <c r="JU53" s="0"/>
+      <c r="JV53" s="0"/>
+      <c r="JW53" s="0"/>
+      <c r="JX53" s="0"/>
+      <c r="JY53" s="0"/>
+      <c r="JZ53" s="0"/>
+      <c r="KA53" s="0"/>
+      <c r="KB53" s="0"/>
+      <c r="KC53" s="0"/>
+      <c r="KD53" s="0"/>
+      <c r="KE53" s="0"/>
+      <c r="KF53" s="0"/>
+      <c r="KG53" s="0"/>
+      <c r="KH53" s="0"/>
+      <c r="KI53" s="0"/>
+      <c r="KJ53" s="0"/>
+      <c r="KK53" s="0"/>
+      <c r="KL53" s="0"/>
+      <c r="KM53" s="0"/>
+      <c r="KN53" s="0"/>
+      <c r="KO53" s="0"/>
+      <c r="KP53" s="0"/>
+      <c r="KQ53" s="0"/>
+      <c r="KR53" s="0"/>
+      <c r="KS53" s="0"/>
+      <c r="KT53" s="0"/>
+      <c r="KU53" s="0"/>
+      <c r="KV53" s="0"/>
+      <c r="KW53" s="0"/>
+      <c r="KX53" s="0"/>
+      <c r="KY53" s="0"/>
+      <c r="KZ53" s="0"/>
+      <c r="LA53" s="0"/>
+      <c r="LB53" s="0"/>
+      <c r="LC53" s="0"/>
+      <c r="LD53" s="0"/>
+      <c r="LE53" s="0"/>
+      <c r="LF53" s="0"/>
+      <c r="LG53" s="0"/>
+      <c r="LH53" s="0"/>
+      <c r="LI53" s="0"/>
+      <c r="LJ53" s="0"/>
+      <c r="LK53" s="0"/>
+      <c r="LL53" s="0"/>
+      <c r="LM53" s="0"/>
+      <c r="LN53" s="0"/>
+      <c r="LO53" s="0"/>
+      <c r="LP53" s="0"/>
+      <c r="LQ53" s="0"/>
+      <c r="LR53" s="0"/>
+      <c r="LS53" s="0"/>
+      <c r="LT53" s="0"/>
+      <c r="LU53" s="0"/>
+      <c r="LV53" s="0"/>
+      <c r="LW53" s="0"/>
+      <c r="LX53" s="0"/>
+      <c r="LY53" s="0"/>
+      <c r="LZ53" s="0"/>
+      <c r="MA53" s="0"/>
+      <c r="MB53" s="0"/>
+      <c r="MC53" s="0"/>
+      <c r="MD53" s="0"/>
+      <c r="ME53" s="0"/>
+      <c r="MF53" s="0"/>
+      <c r="MG53" s="0"/>
+      <c r="MH53" s="0"/>
+      <c r="MI53" s="0"/>
+      <c r="MJ53" s="0"/>
+      <c r="MK53" s="0"/>
+      <c r="ML53" s="0"/>
+      <c r="MM53" s="0"/>
+      <c r="MN53" s="0"/>
+      <c r="MO53" s="0"/>
+      <c r="MP53" s="0"/>
+      <c r="MQ53" s="0"/>
+      <c r="MR53" s="0"/>
+      <c r="MS53" s="0"/>
+      <c r="MT53" s="0"/>
+      <c r="MU53" s="0"/>
+      <c r="MV53" s="0"/>
+      <c r="MW53" s="0"/>
+      <c r="MX53" s="0"/>
+      <c r="MY53" s="0"/>
+      <c r="MZ53" s="0"/>
+      <c r="NA53" s="0"/>
+      <c r="NB53" s="0"/>
+      <c r="NC53" s="0"/>
+      <c r="ND53" s="0"/>
+      <c r="NE53" s="0"/>
+      <c r="NF53" s="0"/>
+      <c r="NG53" s="0"/>
+      <c r="NH53" s="0"/>
+      <c r="NI53" s="0"/>
+      <c r="NJ53" s="0"/>
+      <c r="NK53" s="0"/>
+      <c r="NL53" s="0"/>
+      <c r="NM53" s="0"/>
+      <c r="NN53" s="0"/>
+      <c r="NO53" s="0"/>
+      <c r="NP53" s="0"/>
+      <c r="NQ53" s="0"/>
+      <c r="NR53" s="0"/>
+      <c r="NS53" s="0"/>
+      <c r="NT53" s="0"/>
+      <c r="NU53" s="0"/>
+      <c r="NV53" s="0"/>
+      <c r="NW53" s="0"/>
+      <c r="NX53" s="0"/>
+      <c r="NY53" s="0"/>
+      <c r="NZ53" s="0"/>
+      <c r="OA53" s="0"/>
+      <c r="OB53" s="0"/>
+      <c r="OC53" s="0"/>
+      <c r="OD53" s="0"/>
+      <c r="OE53" s="0"/>
+      <c r="OF53" s="0"/>
+      <c r="OG53" s="0"/>
+      <c r="OH53" s="0"/>
+      <c r="OI53" s="0"/>
+      <c r="OJ53" s="0"/>
+      <c r="OK53" s="0"/>
+      <c r="OL53" s="0"/>
+      <c r="OM53" s="0"/>
+      <c r="ON53" s="0"/>
+      <c r="OO53" s="0"/>
+      <c r="OP53" s="0"/>
+      <c r="OQ53" s="0"/>
+      <c r="OR53" s="0"/>
+      <c r="OS53" s="0"/>
+      <c r="OT53" s="0"/>
+      <c r="OU53" s="0"/>
+      <c r="OV53" s="0"/>
+      <c r="OW53" s="0"/>
+      <c r="OX53" s="0"/>
+      <c r="OY53" s="0"/>
+      <c r="OZ53" s="0"/>
+      <c r="PA53" s="0"/>
+      <c r="PB53" s="0"/>
+      <c r="PC53" s="0"/>
+      <c r="PD53" s="0"/>
+      <c r="PE53" s="0"/>
+      <c r="PF53" s="0"/>
+      <c r="PG53" s="0"/>
+      <c r="PH53" s="0"/>
+      <c r="PI53" s="0"/>
+      <c r="PJ53" s="0"/>
+      <c r="PK53" s="0"/>
+      <c r="PL53" s="0"/>
+      <c r="PM53" s="0"/>
+      <c r="PN53" s="0"/>
+      <c r="PO53" s="0"/>
+      <c r="PP53" s="0"/>
+      <c r="PQ53" s="0"/>
+      <c r="PR53" s="0"/>
+      <c r="PS53" s="0"/>
+      <c r="PT53" s="0"/>
+      <c r="PU53" s="0"/>
+      <c r="PV53" s="0"/>
+      <c r="PW53" s="0"/>
+      <c r="PX53" s="0"/>
+      <c r="PY53" s="0"/>
+      <c r="PZ53" s="0"/>
+      <c r="QA53" s="0"/>
+      <c r="QB53" s="0"/>
+      <c r="QC53" s="0"/>
+      <c r="QD53" s="0"/>
+      <c r="QE53" s="0"/>
+      <c r="QF53" s="0"/>
+      <c r="QG53" s="0"/>
+      <c r="QH53" s="0"/>
+      <c r="QI53" s="0"/>
+      <c r="QJ53" s="0"/>
+      <c r="QK53" s="0"/>
+      <c r="QL53" s="0"/>
+      <c r="QM53" s="0"/>
+      <c r="QN53" s="0"/>
+      <c r="QO53" s="0"/>
+      <c r="QP53" s="0"/>
+      <c r="QQ53" s="0"/>
+      <c r="QR53" s="0"/>
+      <c r="QS53" s="0"/>
+      <c r="QT53" s="0"/>
+      <c r="QU53" s="0"/>
+      <c r="QV53" s="0"/>
+      <c r="QW53" s="0"/>
+      <c r="QX53" s="0"/>
+      <c r="QY53" s="0"/>
+      <c r="QZ53" s="0"/>
+      <c r="RA53" s="0"/>
+      <c r="RB53" s="0"/>
+      <c r="RC53" s="0"/>
+      <c r="RD53" s="0"/>
+      <c r="RE53" s="0"/>
+      <c r="RF53" s="0"/>
+      <c r="RG53" s="0"/>
+      <c r="RH53" s="0"/>
+      <c r="RI53" s="0"/>
+      <c r="RJ53" s="0"/>
+      <c r="RK53" s="0"/>
+      <c r="RL53" s="0"/>
+      <c r="RM53" s="0"/>
+      <c r="RN53" s="0"/>
+      <c r="RO53" s="0"/>
+      <c r="RP53" s="0"/>
+      <c r="RQ53" s="0"/>
+      <c r="RR53" s="0"/>
+      <c r="RS53" s="0"/>
+      <c r="RT53" s="0"/>
+      <c r="RU53" s="0"/>
+      <c r="RV53" s="0"/>
+      <c r="RW53" s="0"/>
+      <c r="RX53" s="0"/>
+      <c r="RY53" s="0"/>
+      <c r="RZ53" s="0"/>
+      <c r="SA53" s="0"/>
+      <c r="SB53" s="0"/>
+      <c r="SC53" s="0"/>
+      <c r="SD53" s="0"/>
+      <c r="SE53" s="0"/>
+      <c r="SF53" s="0"/>
+      <c r="SG53" s="0"/>
+      <c r="SH53" s="0"/>
+      <c r="SI53" s="0"/>
+      <c r="SJ53" s="0"/>
+      <c r="SK53" s="0"/>
+      <c r="SL53" s="0"/>
+      <c r="SM53" s="0"/>
+      <c r="SN53" s="0"/>
+      <c r="SO53" s="0"/>
+      <c r="SP53" s="0"/>
+      <c r="SQ53" s="0"/>
+      <c r="SR53" s="0"/>
+      <c r="SS53" s="0"/>
+      <c r="ST53" s="0"/>
+      <c r="SU53" s="0"/>
+      <c r="SV53" s="0"/>
+      <c r="SW53" s="0"/>
+      <c r="SX53" s="0"/>
+      <c r="SY53" s="0"/>
+      <c r="SZ53" s="0"/>
+      <c r="TA53" s="0"/>
+      <c r="TB53" s="0"/>
+      <c r="TC53" s="0"/>
+      <c r="TD53" s="0"/>
+      <c r="TE53" s="0"/>
+      <c r="TF53" s="0"/>
+      <c r="TG53" s="0"/>
+      <c r="TH53" s="0"/>
+      <c r="TI53" s="0"/>
+      <c r="TJ53" s="0"/>
+      <c r="TK53" s="0"/>
+      <c r="TL53" s="0"/>
+      <c r="TM53" s="0"/>
+      <c r="TN53" s="0"/>
+      <c r="TO53" s="0"/>
+      <c r="TP53" s="0"/>
+      <c r="TQ53" s="0"/>
+      <c r="TR53" s="0"/>
+      <c r="TS53" s="0"/>
+      <c r="TT53" s="0"/>
+      <c r="TU53" s="0"/>
+      <c r="TV53" s="0"/>
+      <c r="TW53" s="0"/>
+      <c r="TX53" s="0"/>
+      <c r="TY53" s="0"/>
+      <c r="TZ53" s="0"/>
+      <c r="UA53" s="0"/>
+      <c r="UB53" s="0"/>
+      <c r="UC53" s="0"/>
+      <c r="UD53" s="0"/>
+      <c r="UE53" s="0"/>
+      <c r="UF53" s="0"/>
+      <c r="UG53" s="0"/>
+      <c r="UH53" s="0"/>
+      <c r="UI53" s="0"/>
+      <c r="UJ53" s="0"/>
+      <c r="UK53" s="0"/>
+      <c r="UL53" s="0"/>
+      <c r="UM53" s="0"/>
+      <c r="UN53" s="0"/>
+      <c r="UO53" s="0"/>
+      <c r="UP53" s="0"/>
+      <c r="UQ53" s="0"/>
+      <c r="UR53" s="0"/>
+      <c r="US53" s="0"/>
+      <c r="UT53" s="0"/>
+      <c r="UU53" s="0"/>
+      <c r="UV53" s="0"/>
+      <c r="UW53" s="0"/>
+      <c r="UX53" s="0"/>
+      <c r="UY53" s="0"/>
+      <c r="UZ53" s="0"/>
+      <c r="VA53" s="0"/>
+      <c r="VB53" s="0"/>
+      <c r="VC53" s="0"/>
+      <c r="VD53" s="0"/>
+      <c r="VE53" s="0"/>
+      <c r="VF53" s="0"/>
+      <c r="VG53" s="0"/>
+      <c r="VH53" s="0"/>
+      <c r="VI53" s="0"/>
+      <c r="VJ53" s="0"/>
+      <c r="VK53" s="0"/>
+      <c r="VL53" s="0"/>
+      <c r="VM53" s="0"/>
+      <c r="VN53" s="0"/>
+      <c r="VO53" s="0"/>
+      <c r="VP53" s="0"/>
+      <c r="VQ53" s="0"/>
+      <c r="VR53" s="0"/>
+      <c r="VS53" s="0"/>
+      <c r="VT53" s="0"/>
+      <c r="VU53" s="0"/>
+      <c r="VV53" s="0"/>
+      <c r="VW53" s="0"/>
+      <c r="VX53" s="0"/>
+      <c r="VY53" s="0"/>
+      <c r="VZ53" s="0"/>
+      <c r="WA53" s="0"/>
+      <c r="WB53" s="0"/>
+      <c r="WC53" s="0"/>
+      <c r="WD53" s="0"/>
+      <c r="WE53" s="0"/>
+      <c r="WF53" s="0"/>
+      <c r="WG53" s="0"/>
+      <c r="WH53" s="0"/>
+      <c r="WI53" s="0"/>
+      <c r="WJ53" s="0"/>
+      <c r="WK53" s="0"/>
+      <c r="WL53" s="0"/>
+      <c r="WM53" s="0"/>
+      <c r="WN53" s="0"/>
+      <c r="WO53" s="0"/>
+      <c r="WP53" s="0"/>
+      <c r="WQ53" s="0"/>
+      <c r="WR53" s="0"/>
+      <c r="WS53" s="0"/>
+      <c r="WT53" s="0"/>
+      <c r="WU53" s="0"/>
+      <c r="WV53" s="0"/>
+      <c r="WW53" s="0"/>
+      <c r="WX53" s="0"/>
+      <c r="WY53" s="0"/>
+      <c r="WZ53" s="0"/>
+      <c r="XA53" s="0"/>
+      <c r="XB53" s="0"/>
+      <c r="XC53" s="0"/>
+      <c r="XD53" s="0"/>
+      <c r="XE53" s="0"/>
+      <c r="XF53" s="0"/>
+      <c r="XG53" s="0"/>
+      <c r="XH53" s="0"/>
+      <c r="XI53" s="0"/>
+      <c r="XJ53" s="0"/>
+      <c r="XK53" s="0"/>
+      <c r="XL53" s="0"/>
+      <c r="XM53" s="0"/>
+      <c r="XN53" s="0"/>
+      <c r="XO53" s="0"/>
+      <c r="XP53" s="0"/>
+      <c r="XQ53" s="0"/>
+      <c r="XR53" s="0"/>
+      <c r="XS53" s="0"/>
+      <c r="XT53" s="0"/>
+      <c r="XU53" s="0"/>
+      <c r="XV53" s="0"/>
+      <c r="XW53" s="0"/>
+      <c r="XX53" s="0"/>
+      <c r="XY53" s="0"/>
+      <c r="XZ53" s="0"/>
+      <c r="YA53" s="0"/>
+      <c r="YB53" s="0"/>
+      <c r="YC53" s="0"/>
+      <c r="YD53" s="0"/>
+      <c r="YE53" s="0"/>
+      <c r="YF53" s="0"/>
+      <c r="YG53" s="0"/>
+      <c r="YH53" s="0"/>
+      <c r="YI53" s="0"/>
+      <c r="YJ53" s="0"/>
+      <c r="YK53" s="0"/>
+      <c r="YL53" s="0"/>
+      <c r="YM53" s="0"/>
+      <c r="YN53" s="0"/>
+      <c r="YO53" s="0"/>
+      <c r="YP53" s="0"/>
+      <c r="YQ53" s="0"/>
+      <c r="YR53" s="0"/>
+      <c r="YS53" s="0"/>
+      <c r="YT53" s="0"/>
+      <c r="YU53" s="0"/>
+      <c r="YV53" s="0"/>
+      <c r="YW53" s="0"/>
+      <c r="YX53" s="0"/>
+      <c r="YY53" s="0"/>
+      <c r="YZ53" s="0"/>
+      <c r="ZA53" s="0"/>
+      <c r="ZB53" s="0"/>
+      <c r="ZC53" s="0"/>
+      <c r="ZD53" s="0"/>
+      <c r="ZE53" s="0"/>
+      <c r="ZF53" s="0"/>
+      <c r="ZG53" s="0"/>
+      <c r="ZH53" s="0"/>
+      <c r="ZI53" s="0"/>
+      <c r="ZJ53" s="0"/>
+      <c r="ZK53" s="0"/>
+      <c r="ZL53" s="0"/>
+      <c r="ZM53" s="0"/>
+      <c r="ZN53" s="0"/>
+      <c r="ZO53" s="0"/>
+      <c r="ZP53" s="0"/>
+      <c r="ZQ53" s="0"/>
+      <c r="ZR53" s="0"/>
+      <c r="ZS53" s="0"/>
+      <c r="ZT53" s="0"/>
+      <c r="ZU53" s="0"/>
+      <c r="ZV53" s="0"/>
+      <c r="ZW53" s="0"/>
+      <c r="ZX53" s="0"/>
+      <c r="ZY53" s="0"/>
+      <c r="ZZ53" s="0"/>
+      <c r="AAA53" s="0"/>
+      <c r="AAB53" s="0"/>
+      <c r="AAC53" s="0"/>
+      <c r="AAD53" s="0"/>
+      <c r="AAE53" s="0"/>
+      <c r="AAF53" s="0"/>
+      <c r="AAG53" s="0"/>
+      <c r="AAH53" s="0"/>
+      <c r="AAI53" s="0"/>
+      <c r="AAJ53" s="0"/>
+      <c r="AAK53" s="0"/>
+      <c r="AAL53" s="0"/>
+      <c r="AAM53" s="0"/>
+      <c r="AAN53" s="0"/>
+      <c r="AAO53" s="0"/>
+      <c r="AAP53" s="0"/>
+      <c r="AAQ53" s="0"/>
+      <c r="AAR53" s="0"/>
+      <c r="AAS53" s="0"/>
+      <c r="AAT53" s="0"/>
+      <c r="AAU53" s="0"/>
+      <c r="AAV53" s="0"/>
+      <c r="AAW53" s="0"/>
+      <c r="AAX53" s="0"/>
+      <c r="AAY53" s="0"/>
+      <c r="AAZ53" s="0"/>
+      <c r="ABA53" s="0"/>
+      <c r="ABB53" s="0"/>
+      <c r="ABC53" s="0"/>
+      <c r="ABD53" s="0"/>
+      <c r="ABE53" s="0"/>
+      <c r="ABF53" s="0"/>
+      <c r="ABG53" s="0"/>
+      <c r="ABH53" s="0"/>
+      <c r="ABI53" s="0"/>
+      <c r="ABJ53" s="0"/>
+      <c r="ABK53" s="0"/>
+      <c r="ABL53" s="0"/>
+      <c r="ABM53" s="0"/>
+      <c r="ABN53" s="0"/>
+      <c r="ABO53" s="0"/>
+      <c r="ABP53" s="0"/>
+      <c r="ABQ53" s="0"/>
+      <c r="ABR53" s="0"/>
+      <c r="ABS53" s="0"/>
+      <c r="ABT53" s="0"/>
+      <c r="ABU53" s="0"/>
+      <c r="ABV53" s="0"/>
+      <c r="ABW53" s="0"/>
+      <c r="ABX53" s="0"/>
+      <c r="ABY53" s="0"/>
+      <c r="ABZ53" s="0"/>
+      <c r="ACA53" s="0"/>
+      <c r="ACB53" s="0"/>
+      <c r="ACC53" s="0"/>
+      <c r="ACD53" s="0"/>
+      <c r="ACE53" s="0"/>
+      <c r="ACF53" s="0"/>
+      <c r="ACG53" s="0"/>
+      <c r="ACH53" s="0"/>
+      <c r="ACI53" s="0"/>
+      <c r="ACJ53" s="0"/>
+      <c r="ACK53" s="0"/>
+      <c r="ACL53" s="0"/>
+      <c r="ACM53" s="0"/>
+      <c r="ACN53" s="0"/>
+      <c r="ACO53" s="0"/>
+      <c r="ACP53" s="0"/>
+      <c r="ACQ53" s="0"/>
+      <c r="ACR53" s="0"/>
+      <c r="ACS53" s="0"/>
+      <c r="ACT53" s="0"/>
+      <c r="ACU53" s="0"/>
+      <c r="ACV53" s="0"/>
+      <c r="ACW53" s="0"/>
+      <c r="ACX53" s="0"/>
+      <c r="ACY53" s="0"/>
+      <c r="ACZ53" s="0"/>
+      <c r="ADA53" s="0"/>
+      <c r="ADB53" s="0"/>
+      <c r="ADC53" s="0"/>
+      <c r="ADD53" s="0"/>
+      <c r="ADE53" s="0"/>
+      <c r="ADF53" s="0"/>
+      <c r="ADG53" s="0"/>
+      <c r="ADH53" s="0"/>
+      <c r="ADI53" s="0"/>
+      <c r="ADJ53" s="0"/>
+      <c r="ADK53" s="0"/>
+      <c r="ADL53" s="0"/>
+      <c r="ADM53" s="0"/>
+      <c r="ADN53" s="0"/>
+      <c r="ADO53" s="0"/>
+      <c r="ADP53" s="0"/>
+      <c r="ADQ53" s="0"/>
+      <c r="ADR53" s="0"/>
+      <c r="ADS53" s="0"/>
+      <c r="ADT53" s="0"/>
+      <c r="ADU53" s="0"/>
+      <c r="ADV53" s="0"/>
+      <c r="ADW53" s="0"/>
+      <c r="ADX53" s="0"/>
+      <c r="ADY53" s="0"/>
+      <c r="ADZ53" s="0"/>
+      <c r="AEA53" s="0"/>
+      <c r="AEB53" s="0"/>
+      <c r="AEC53" s="0"/>
+      <c r="AED53" s="0"/>
+      <c r="AEE53" s="0"/>
+      <c r="AEF53" s="0"/>
+      <c r="AEG53" s="0"/>
+      <c r="AEH53" s="0"/>
+      <c r="AEI53" s="0"/>
+      <c r="AEJ53" s="0"/>
+      <c r="AEK53" s="0"/>
+      <c r="AEL53" s="0"/>
+      <c r="AEM53" s="0"/>
+      <c r="AEN53" s="0"/>
+      <c r="AEO53" s="0"/>
+      <c r="AEP53" s="0"/>
+      <c r="AEQ53" s="0"/>
+      <c r="AER53" s="0"/>
+      <c r="AES53" s="0"/>
+      <c r="AET53" s="0"/>
+      <c r="AEU53" s="0"/>
+      <c r="AEV53" s="0"/>
+      <c r="AEW53" s="0"/>
+      <c r="AEX53" s="0"/>
+      <c r="AEY53" s="0"/>
+      <c r="AEZ53" s="0"/>
+      <c r="AFA53" s="0"/>
+      <c r="AFB53" s="0"/>
+      <c r="AFC53" s="0"/>
+      <c r="AFD53" s="0"/>
+      <c r="AFE53" s="0"/>
+      <c r="AFF53" s="0"/>
+      <c r="AFG53" s="0"/>
+      <c r="AFH53" s="0"/>
+      <c r="AFI53" s="0"/>
+      <c r="AFJ53" s="0"/>
+      <c r="AFK53" s="0"/>
+      <c r="AFL53" s="0"/>
+      <c r="AFM53" s="0"/>
+      <c r="AFN53" s="0"/>
+      <c r="AFO53" s="0"/>
+      <c r="AFP53" s="0"/>
+      <c r="AFQ53" s="0"/>
+      <c r="AFR53" s="0"/>
+      <c r="AFS53" s="0"/>
+      <c r="AFT53" s="0"/>
+      <c r="AFU53" s="0"/>
+      <c r="AFV53" s="0"/>
+      <c r="AFW53" s="0"/>
+      <c r="AFX53" s="0"/>
+      <c r="AFY53" s="0"/>
+      <c r="AFZ53" s="0"/>
+      <c r="AGA53" s="0"/>
+      <c r="AGB53" s="0"/>
+      <c r="AGC53" s="0"/>
+      <c r="AGD53" s="0"/>
+      <c r="AGE53" s="0"/>
+      <c r="AGF53" s="0"/>
+      <c r="AGG53" s="0"/>
+      <c r="AGH53" s="0"/>
+      <c r="AGI53" s="0"/>
+      <c r="AGJ53" s="0"/>
+      <c r="AGK53" s="0"/>
+      <c r="AGL53" s="0"/>
+      <c r="AGM53" s="0"/>
+      <c r="AGN53" s="0"/>
+      <c r="AGO53" s="0"/>
+      <c r="AGP53" s="0"/>
+      <c r="AGQ53" s="0"/>
+      <c r="AGR53" s="0"/>
+      <c r="AGS53" s="0"/>
+      <c r="AGT53" s="0"/>
+      <c r="AGU53" s="0"/>
+      <c r="AGV53" s="0"/>
+      <c r="AGW53" s="0"/>
+      <c r="AGX53" s="0"/>
+      <c r="AGY53" s="0"/>
+      <c r="AGZ53" s="0"/>
+      <c r="AHA53" s="0"/>
+      <c r="AHB53" s="0"/>
+      <c r="AHC53" s="0"/>
+      <c r="AHD53" s="0"/>
+      <c r="AHE53" s="0"/>
+      <c r="AHF53" s="0"/>
+      <c r="AHG53" s="0"/>
+      <c r="AHH53" s="0"/>
+      <c r="AHI53" s="0"/>
+      <c r="AHJ53" s="0"/>
+      <c r="AHK53" s="0"/>
+      <c r="AHL53" s="0"/>
+      <c r="AHM53" s="0"/>
+      <c r="AHN53" s="0"/>
+      <c r="AHO53" s="0"/>
+      <c r="AHP53" s="0"/>
+      <c r="AHQ53" s="0"/>
+      <c r="AHR53" s="0"/>
+      <c r="AHS53" s="0"/>
+      <c r="AHT53" s="0"/>
+      <c r="AHU53" s="0"/>
+      <c r="AHV53" s="0"/>
+      <c r="AHW53" s="0"/>
+      <c r="AHX53" s="0"/>
+      <c r="AHY53" s="0"/>
+      <c r="AHZ53" s="0"/>
+      <c r="AIA53" s="0"/>
+      <c r="AIB53" s="0"/>
+      <c r="AIC53" s="0"/>
+      <c r="AID53" s="0"/>
+      <c r="AIE53" s="0"/>
+      <c r="AIF53" s="0"/>
+      <c r="AIG53" s="0"/>
+      <c r="AIH53" s="0"/>
+      <c r="AII53" s="0"/>
+      <c r="AIJ53" s="0"/>
+      <c r="AIK53" s="0"/>
+      <c r="AIL53" s="0"/>
+      <c r="AIM53" s="0"/>
+      <c r="AIN53" s="0"/>
+      <c r="AIO53" s="0"/>
+      <c r="AIP53" s="0"/>
+      <c r="AIQ53" s="0"/>
+      <c r="AIR53" s="0"/>
+      <c r="AIS53" s="0"/>
+      <c r="AIT53" s="0"/>
+      <c r="AIU53" s="0"/>
+      <c r="AIV53" s="0"/>
+      <c r="AIW53" s="0"/>
+      <c r="AIX53" s="0"/>
+      <c r="AIY53" s="0"/>
+      <c r="AIZ53" s="0"/>
+      <c r="AJA53" s="0"/>
+      <c r="AJB53" s="0"/>
+      <c r="AJC53" s="0"/>
+      <c r="AJD53" s="0"/>
+      <c r="AJE53" s="0"/>
+      <c r="AJF53" s="0"/>
+      <c r="AJG53" s="0"/>
+      <c r="AJH53" s="0"/>
+      <c r="AJI53" s="0"/>
+      <c r="AJJ53" s="0"/>
+      <c r="AJK53" s="0"/>
+      <c r="AJL53" s="0"/>
+      <c r="AJM53" s="0"/>
+      <c r="AJN53" s="0"/>
+      <c r="AJO53" s="0"/>
+      <c r="AJP53" s="0"/>
+      <c r="AJQ53" s="0"/>
+      <c r="AJR53" s="0"/>
+      <c r="AJS53" s="0"/>
+      <c r="AJT53" s="0"/>
+      <c r="AJU53" s="0"/>
+      <c r="AJV53" s="0"/>
+      <c r="AJW53" s="0"/>
+      <c r="AJX53" s="0"/>
+      <c r="AJY53" s="0"/>
+      <c r="AJZ53" s="0"/>
+      <c r="AKA53" s="0"/>
+      <c r="AKB53" s="0"/>
+      <c r="AKC53" s="0"/>
+      <c r="AKD53" s="0"/>
+      <c r="AKE53" s="0"/>
+      <c r="AKF53" s="0"/>
+      <c r="AKG53" s="0"/>
+      <c r="AKH53" s="0"/>
+      <c r="AKI53" s="0"/>
+      <c r="AKJ53" s="0"/>
+      <c r="AKK53" s="0"/>
+      <c r="AKL53" s="0"/>
+      <c r="AKM53" s="0"/>
+      <c r="AKN53" s="0"/>
+      <c r="AKO53" s="0"/>
+      <c r="AKP53" s="0"/>
+      <c r="AKQ53" s="0"/>
+      <c r="AKR53" s="0"/>
+      <c r="AKS53" s="0"/>
+      <c r="AKT53" s="0"/>
+      <c r="AKU53" s="0"/>
+      <c r="AKV53" s="0"/>
+      <c r="AKW53" s="0"/>
+      <c r="AKX53" s="0"/>
+      <c r="AKY53" s="0"/>
+      <c r="AKZ53" s="0"/>
+      <c r="ALA53" s="0"/>
+      <c r="ALB53" s="0"/>
+      <c r="ALC53" s="0"/>
+      <c r="ALD53" s="0"/>
+      <c r="ALE53" s="0"/>
+      <c r="ALF53" s="0"/>
+      <c r="ALG53" s="0"/>
+      <c r="ALH53" s="0"/>
+      <c r="ALI53" s="0"/>
+      <c r="ALJ53" s="0"/>
+      <c r="ALK53" s="0"/>
+      <c r="ALL53" s="0"/>
+      <c r="ALM53" s="0"/>
+      <c r="ALN53" s="0"/>
+      <c r="ALO53" s="0"/>
+      <c r="ALP53" s="0"/>
+      <c r="ALQ53" s="0"/>
+      <c r="ALR53" s="0"/>
+      <c r="ALS53" s="0"/>
+      <c r="ALT53" s="0"/>
+      <c r="ALU53" s="0"/>
+      <c r="ALV53" s="0"/>
+      <c r="ALW53" s="0"/>
+      <c r="ALX53" s="0"/>
+      <c r="ALY53" s="0"/>
+      <c r="ALZ53" s="0"/>
+      <c r="AMA53" s="0"/>
+      <c r="AMB53" s="0"/>
+      <c r="AMC53" s="0"/>
+      <c r="AMD53" s="0"/>
+      <c r="AME53" s="0"/>
+      <c r="AMF53" s="0"/>
+      <c r="AMG53" s="0"/>
+      <c r="AMH53" s="0"/>
+      <c r="AMI53" s="0"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="103" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="47" t="n">
+        <v>445</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="30" t="n">
+        <v>45545</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="X54" s="0"/>
+      <c r="Y54" s="0"/>
+      <c r="Z54" s="0"/>
+      <c r="AA54" s="0"/>
+      <c r="AB54" s="0"/>
+      <c r="AC54" s="0"/>
+      <c r="AD54" s="0"/>
+      <c r="AE54" s="0"/>
+      <c r="AF54" s="0"/>
+      <c r="AG54" s="0"/>
+      <c r="AH54" s="0"/>
+      <c r="AI54" s="0"/>
+      <c r="AJ54" s="0"/>
+      <c r="AK54" s="0"/>
+      <c r="AL54" s="0"/>
+      <c r="AM54" s="0"/>
+      <c r="AN54" s="0"/>
+      <c r="AO54" s="0"/>
+      <c r="AP54" s="0"/>
+      <c r="AQ54" s="0"/>
+      <c r="AR54" s="0"/>
+      <c r="AS54" s="0"/>
+      <c r="AT54" s="0"/>
+      <c r="AU54" s="0"/>
+      <c r="AV54" s="0"/>
+      <c r="AW54" s="0"/>
+      <c r="AX54" s="0"/>
+      <c r="AY54" s="0"/>
+      <c r="AZ54" s="0"/>
+      <c r="BA54" s="0"/>
+      <c r="BB54" s="0"/>
+      <c r="BC54" s="0"/>
+      <c r="BD54" s="0"/>
+      <c r="BE54" s="0"/>
+      <c r="BF54" s="0"/>
+      <c r="BG54" s="0"/>
+      <c r="BH54" s="0"/>
+      <c r="BI54" s="0"/>
+      <c r="BJ54" s="0"/>
+      <c r="BK54" s="0"/>
+      <c r="BL54" s="0"/>
+      <c r="BM54" s="0"/>
+      <c r="BN54" s="0"/>
+      <c r="BO54" s="0"/>
+      <c r="BP54" s="0"/>
+      <c r="BQ54" s="0"/>
+      <c r="BR54" s="0"/>
+      <c r="BS54" s="0"/>
+      <c r="BT54" s="0"/>
+      <c r="BU54" s="0"/>
+      <c r="BV54" s="0"/>
+      <c r="BW54" s="0"/>
+      <c r="BX54" s="0"/>
+      <c r="BY54" s="0"/>
+      <c r="BZ54" s="0"/>
+      <c r="CA54" s="0"/>
+      <c r="CB54" s="0"/>
+      <c r="CC54" s="0"/>
+      <c r="CD54" s="0"/>
+      <c r="CE54" s="0"/>
+      <c r="CF54" s="0"/>
+      <c r="CG54" s="0"/>
+      <c r="CH54" s="0"/>
+      <c r="CI54" s="0"/>
+      <c r="CJ54" s="0"/>
+      <c r="CK54" s="0"/>
+      <c r="CL54" s="0"/>
+      <c r="CM54" s="0"/>
+      <c r="CN54" s="0"/>
+      <c r="CO54" s="0"/>
+      <c r="CP54" s="0"/>
+      <c r="CQ54" s="0"/>
+      <c r="CR54" s="0"/>
+      <c r="CS54" s="0"/>
+      <c r="CT54" s="0"/>
+      <c r="CU54" s="0"/>
+      <c r="CV54" s="0"/>
+      <c r="CW54" s="0"/>
+      <c r="CX54" s="0"/>
+      <c r="CY54" s="0"/>
+      <c r="CZ54" s="0"/>
+      <c r="DA54" s="0"/>
+      <c r="DB54" s="0"/>
+      <c r="DC54" s="0"/>
+      <c r="DD54" s="0"/>
+      <c r="DE54" s="0"/>
+      <c r="DF54" s="0"/>
+      <c r="DG54" s="0"/>
+      <c r="DH54" s="0"/>
+      <c r="DI54" s="0"/>
+      <c r="DJ54" s="0"/>
+      <c r="DK54" s="0"/>
+      <c r="DL54" s="0"/>
+      <c r="DM54" s="0"/>
+      <c r="DN54" s="0"/>
+      <c r="DO54" s="0"/>
+      <c r="DP54" s="0"/>
+      <c r="DQ54" s="0"/>
+      <c r="DR54" s="0"/>
+      <c r="DS54" s="0"/>
+      <c r="DT54" s="0"/>
+      <c r="DU54" s="0"/>
+      <c r="DV54" s="0"/>
+      <c r="DW54" s="0"/>
+      <c r="DX54" s="0"/>
+      <c r="DY54" s="0"/>
+      <c r="DZ54" s="0"/>
+      <c r="EA54" s="0"/>
+      <c r="EB54" s="0"/>
+      <c r="EC54" s="0"/>
+      <c r="ED54" s="0"/>
+      <c r="EE54" s="0"/>
+      <c r="EF54" s="0"/>
+      <c r="EG54" s="0"/>
+      <c r="EH54" s="0"/>
+      <c r="EI54" s="0"/>
+      <c r="EJ54" s="0"/>
+      <c r="EK54" s="0"/>
+      <c r="EL54" s="0"/>
+      <c r="EM54" s="0"/>
+      <c r="EN54" s="0"/>
+      <c r="EO54" s="0"/>
+      <c r="EP54" s="0"/>
+      <c r="EQ54" s="0"/>
+      <c r="ER54" s="0"/>
+      <c r="ES54" s="0"/>
+      <c r="ET54" s="0"/>
+      <c r="EU54" s="0"/>
+      <c r="EV54" s="0"/>
+      <c r="EW54" s="0"/>
+      <c r="EX54" s="0"/>
+      <c r="EY54" s="0"/>
+      <c r="EZ54" s="0"/>
+      <c r="FA54" s="0"/>
+      <c r="FB54" s="0"/>
+      <c r="FC54" s="0"/>
+      <c r="FD54" s="0"/>
+      <c r="FE54" s="0"/>
+      <c r="FF54" s="0"/>
+      <c r="FG54" s="0"/>
+      <c r="FH54" s="0"/>
+      <c r="FI54" s="0"/>
+      <c r="FJ54" s="0"/>
+      <c r="FK54" s="0"/>
+      <c r="FL54" s="0"/>
+      <c r="FM54" s="0"/>
+      <c r="FN54" s="0"/>
+      <c r="FO54" s="0"/>
+      <c r="FP54" s="0"/>
+      <c r="FQ54" s="0"/>
+      <c r="FR54" s="0"/>
+      <c r="FS54" s="0"/>
+      <c r="FT54" s="0"/>
+      <c r="FU54" s="0"/>
+      <c r="FV54" s="0"/>
+      <c r="FW54" s="0"/>
+      <c r="FX54" s="0"/>
+      <c r="FY54" s="0"/>
+      <c r="FZ54" s="0"/>
+      <c r="GA54" s="0"/>
+      <c r="GB54" s="0"/>
+      <c r="GC54" s="0"/>
+      <c r="GD54" s="0"/>
+      <c r="GE54" s="0"/>
+      <c r="GF54" s="0"/>
+      <c r="GG54" s="0"/>
+      <c r="GH54" s="0"/>
+      <c r="GI54" s="0"/>
+      <c r="GJ54" s="0"/>
+      <c r="GK54" s="0"/>
+      <c r="GL54" s="0"/>
+      <c r="GM54" s="0"/>
+      <c r="GN54" s="0"/>
+      <c r="GO54" s="0"/>
+      <c r="GP54" s="0"/>
+      <c r="GQ54" s="0"/>
+      <c r="GR54" s="0"/>
+      <c r="GS54" s="0"/>
+      <c r="GT54" s="0"/>
+      <c r="GU54" s="0"/>
+      <c r="GV54" s="0"/>
+      <c r="GW54" s="0"/>
+      <c r="GX54" s="0"/>
+      <c r="GY54" s="0"/>
+      <c r="GZ54" s="0"/>
+      <c r="HA54" s="0"/>
+      <c r="HB54" s="0"/>
+      <c r="HC54" s="0"/>
+      <c r="HD54" s="0"/>
+      <c r="HE54" s="0"/>
+      <c r="HF54" s="0"/>
+      <c r="HG54" s="0"/>
+      <c r="HH54" s="0"/>
+      <c r="HI54" s="0"/>
+      <c r="HJ54" s="0"/>
+      <c r="HK54" s="0"/>
+      <c r="HL54" s="0"/>
+      <c r="HM54" s="0"/>
+      <c r="HN54" s="0"/>
+      <c r="HO54" s="0"/>
+      <c r="HP54" s="0"/>
+      <c r="HQ54" s="0"/>
+      <c r="HR54" s="0"/>
+      <c r="HS54" s="0"/>
+      <c r="HT54" s="0"/>
+      <c r="HU54" s="0"/>
+      <c r="HV54" s="0"/>
+      <c r="HW54" s="0"/>
+      <c r="HX54" s="0"/>
+      <c r="HY54" s="0"/>
+      <c r="HZ54" s="0"/>
+      <c r="IA54" s="0"/>
+      <c r="IB54" s="0"/>
+      <c r="IC54" s="0"/>
+      <c r="ID54" s="0"/>
+      <c r="IE54" s="0"/>
+      <c r="IF54" s="0"/>
+      <c r="IG54" s="0"/>
+      <c r="IH54" s="0"/>
+      <c r="II54" s="0"/>
+      <c r="IJ54" s="0"/>
+      <c r="IK54" s="0"/>
+      <c r="IL54" s="0"/>
+      <c r="IM54" s="0"/>
+      <c r="IN54" s="0"/>
+      <c r="IO54" s="0"/>
+      <c r="IP54" s="0"/>
+      <c r="IQ54" s="0"/>
+      <c r="IR54" s="0"/>
+      <c r="IS54" s="0"/>
+      <c r="IT54" s="0"/>
+      <c r="IU54" s="0"/>
+      <c r="IV54" s="0"/>
+      <c r="IW54" s="0"/>
+      <c r="IX54" s="0"/>
+      <c r="IY54" s="0"/>
+      <c r="IZ54" s="0"/>
+      <c r="JA54" s="0"/>
+      <c r="JB54" s="0"/>
+      <c r="JC54" s="0"/>
+      <c r="JD54" s="0"/>
+      <c r="JE54" s="0"/>
+      <c r="JF54" s="0"/>
+      <c r="JG54" s="0"/>
+      <c r="JH54" s="0"/>
+      <c r="JI54" s="0"/>
+      <c r="JJ54" s="0"/>
+      <c r="JK54" s="0"/>
+      <c r="JL54" s="0"/>
+      <c r="JM54" s="0"/>
+      <c r="JN54" s="0"/>
+      <c r="JO54" s="0"/>
+      <c r="JP54" s="0"/>
+      <c r="JQ54" s="0"/>
+      <c r="JR54" s="0"/>
+      <c r="JS54" s="0"/>
+      <c r="JT54" s="0"/>
+      <c r="JU54" s="0"/>
+      <c r="JV54" s="0"/>
+      <c r="JW54" s="0"/>
+      <c r="JX54" s="0"/>
+      <c r="JY54" s="0"/>
+      <c r="JZ54" s="0"/>
+      <c r="KA54" s="0"/>
+      <c r="KB54" s="0"/>
+      <c r="KC54" s="0"/>
+      <c r="KD54" s="0"/>
+      <c r="KE54" s="0"/>
+      <c r="KF54" s="0"/>
+      <c r="KG54" s="0"/>
+      <c r="KH54" s="0"/>
+      <c r="KI54" s="0"/>
+      <c r="KJ54" s="0"/>
+      <c r="KK54" s="0"/>
+      <c r="KL54" s="0"/>
+      <c r="KM54" s="0"/>
+      <c r="KN54" s="0"/>
+      <c r="KO54" s="0"/>
+      <c r="KP54" s="0"/>
+      <c r="KQ54" s="0"/>
+      <c r="KR54" s="0"/>
+      <c r="KS54" s="0"/>
+      <c r="KT54" s="0"/>
+      <c r="KU54" s="0"/>
+      <c r="KV54" s="0"/>
+      <c r="KW54" s="0"/>
+      <c r="KX54" s="0"/>
+      <c r="KY54" s="0"/>
+      <c r="KZ54" s="0"/>
+      <c r="LA54" s="0"/>
+      <c r="LB54" s="0"/>
+      <c r="LC54" s="0"/>
+      <c r="LD54" s="0"/>
+      <c r="LE54" s="0"/>
+      <c r="LF54" s="0"/>
+      <c r="LG54" s="0"/>
+      <c r="LH54" s="0"/>
+      <c r="LI54" s="0"/>
+      <c r="LJ54" s="0"/>
+      <c r="LK54" s="0"/>
+      <c r="LL54" s="0"/>
+      <c r="LM54" s="0"/>
+      <c r="LN54" s="0"/>
+      <c r="LO54" s="0"/>
+      <c r="LP54" s="0"/>
+      <c r="LQ54" s="0"/>
+      <c r="LR54" s="0"/>
+      <c r="LS54" s="0"/>
+      <c r="LT54" s="0"/>
+      <c r="LU54" s="0"/>
+      <c r="LV54" s="0"/>
+      <c r="LW54" s="0"/>
+      <c r="LX54" s="0"/>
+      <c r="LY54" s="0"/>
+      <c r="LZ54" s="0"/>
+      <c r="MA54" s="0"/>
+      <c r="MB54" s="0"/>
+      <c r="MC54" s="0"/>
+      <c r="MD54" s="0"/>
+      <c r="ME54" s="0"/>
+      <c r="MF54" s="0"/>
+      <c r="MG54" s="0"/>
+      <c r="MH54" s="0"/>
+      <c r="MI54" s="0"/>
+      <c r="MJ54" s="0"/>
+      <c r="MK54" s="0"/>
+      <c r="ML54" s="0"/>
+      <c r="MM54" s="0"/>
+      <c r="MN54" s="0"/>
+      <c r="MO54" s="0"/>
+      <c r="MP54" s="0"/>
+      <c r="MQ54" s="0"/>
+      <c r="MR54" s="0"/>
+      <c r="MS54" s="0"/>
+      <c r="MT54" s="0"/>
+      <c r="MU54" s="0"/>
+      <c r="MV54" s="0"/>
+      <c r="MW54" s="0"/>
+      <c r="MX54" s="0"/>
+      <c r="MY54" s="0"/>
+      <c r="MZ54" s="0"/>
+      <c r="NA54" s="0"/>
+      <c r="NB54" s="0"/>
+      <c r="NC54" s="0"/>
+      <c r="ND54" s="0"/>
+      <c r="NE54" s="0"/>
+      <c r="NF54" s="0"/>
+      <c r="NG54" s="0"/>
+      <c r="NH54" s="0"/>
+      <c r="NI54" s="0"/>
+      <c r="NJ54" s="0"/>
+      <c r="NK54" s="0"/>
+      <c r="NL54" s="0"/>
+      <c r="NM54" s="0"/>
+      <c r="NN54" s="0"/>
+      <c r="NO54" s="0"/>
+      <c r="NP54" s="0"/>
+      <c r="NQ54" s="0"/>
+      <c r="NR54" s="0"/>
+      <c r="NS54" s="0"/>
+      <c r="NT54" s="0"/>
+      <c r="NU54" s="0"/>
+      <c r="NV54" s="0"/>
+      <c r="NW54" s="0"/>
+      <c r="NX54" s="0"/>
+      <c r="NY54" s="0"/>
+      <c r="NZ54" s="0"/>
+      <c r="OA54" s="0"/>
+      <c r="OB54" s="0"/>
+      <c r="OC54" s="0"/>
+      <c r="OD54" s="0"/>
+      <c r="OE54" s="0"/>
+      <c r="OF54" s="0"/>
+      <c r="OG54" s="0"/>
+      <c r="OH54" s="0"/>
+      <c r="OI54" s="0"/>
+      <c r="OJ54" s="0"/>
+      <c r="OK54" s="0"/>
+      <c r="OL54" s="0"/>
+      <c r="OM54" s="0"/>
+      <c r="ON54" s="0"/>
+      <c r="OO54" s="0"/>
+      <c r="OP54" s="0"/>
+      <c r="OQ54" s="0"/>
+      <c r="OR54" s="0"/>
+      <c r="OS54" s="0"/>
+      <c r="OT54" s="0"/>
+      <c r="OU54" s="0"/>
+      <c r="OV54" s="0"/>
+      <c r="OW54" s="0"/>
+      <c r="OX54" s="0"/>
+      <c r="OY54" s="0"/>
+      <c r="OZ54" s="0"/>
+      <c r="PA54" s="0"/>
+      <c r="PB54" s="0"/>
+      <c r="PC54" s="0"/>
+      <c r="PD54" s="0"/>
+      <c r="PE54" s="0"/>
+      <c r="PF54" s="0"/>
+      <c r="PG54" s="0"/>
+      <c r="PH54" s="0"/>
+      <c r="PI54" s="0"/>
+      <c r="PJ54" s="0"/>
+      <c r="PK54" s="0"/>
+      <c r="PL54" s="0"/>
+      <c r="PM54" s="0"/>
+      <c r="PN54" s="0"/>
+      <c r="PO54" s="0"/>
+      <c r="PP54" s="0"/>
+      <c r="PQ54" s="0"/>
+      <c r="PR54" s="0"/>
+      <c r="PS54" s="0"/>
+      <c r="PT54" s="0"/>
+      <c r="PU54" s="0"/>
+      <c r="PV54" s="0"/>
+      <c r="PW54" s="0"/>
+      <c r="PX54" s="0"/>
+      <c r="PY54" s="0"/>
+      <c r="PZ54" s="0"/>
+      <c r="QA54" s="0"/>
+      <c r="QB54" s="0"/>
+      <c r="QC54" s="0"/>
+      <c r="QD54" s="0"/>
+      <c r="QE54" s="0"/>
+      <c r="QF54" s="0"/>
+      <c r="QG54" s="0"/>
+      <c r="QH54" s="0"/>
+      <c r="QI54" s="0"/>
+      <c r="QJ54" s="0"/>
+      <c r="QK54" s="0"/>
+      <c r="QL54" s="0"/>
+      <c r="QM54" s="0"/>
+      <c r="QN54" s="0"/>
+      <c r="QO54" s="0"/>
+      <c r="QP54" s="0"/>
+      <c r="QQ54" s="0"/>
+      <c r="QR54" s="0"/>
+      <c r="QS54" s="0"/>
+      <c r="QT54" s="0"/>
+      <c r="QU54" s="0"/>
+      <c r="QV54" s="0"/>
+      <c r="QW54" s="0"/>
+      <c r="QX54" s="0"/>
+      <c r="QY54" s="0"/>
+      <c r="QZ54" s="0"/>
+      <c r="RA54" s="0"/>
+      <c r="RB54" s="0"/>
+      <c r="RC54" s="0"/>
+      <c r="RD54" s="0"/>
+      <c r="RE54" s="0"/>
+      <c r="RF54" s="0"/>
+      <c r="RG54" s="0"/>
+      <c r="RH54" s="0"/>
+      <c r="RI54" s="0"/>
+      <c r="RJ54" s="0"/>
+      <c r="RK54" s="0"/>
+      <c r="RL54" s="0"/>
+      <c r="RM54" s="0"/>
+      <c r="RN54" s="0"/>
+      <c r="RO54" s="0"/>
+      <c r="RP54" s="0"/>
+      <c r="RQ54" s="0"/>
+      <c r="RR54" s="0"/>
+      <c r="RS54" s="0"/>
+      <c r="RT54" s="0"/>
+      <c r="RU54" s="0"/>
+      <c r="RV54" s="0"/>
+      <c r="RW54" s="0"/>
+      <c r="RX54" s="0"/>
+      <c r="RY54" s="0"/>
+      <c r="RZ54" s="0"/>
+      <c r="SA54" s="0"/>
+      <c r="SB54" s="0"/>
+      <c r="SC54" s="0"/>
+      <c r="SD54" s="0"/>
+      <c r="SE54" s="0"/>
+      <c r="SF54" s="0"/>
+      <c r="SG54" s="0"/>
+      <c r="SH54" s="0"/>
+      <c r="SI54" s="0"/>
+      <c r="SJ54" s="0"/>
+      <c r="SK54" s="0"/>
+      <c r="SL54" s="0"/>
+      <c r="SM54" s="0"/>
+      <c r="SN54" s="0"/>
+      <c r="SO54" s="0"/>
+      <c r="SP54" s="0"/>
+      <c r="SQ54" s="0"/>
+      <c r="SR54" s="0"/>
+      <c r="SS54" s="0"/>
+      <c r="ST54" s="0"/>
+      <c r="SU54" s="0"/>
+      <c r="SV54" s="0"/>
+      <c r="SW54" s="0"/>
+      <c r="SX54" s="0"/>
+      <c r="SY54" s="0"/>
+      <c r="SZ54" s="0"/>
+      <c r="TA54" s="0"/>
+      <c r="TB54" s="0"/>
+      <c r="TC54" s="0"/>
+      <c r="TD54" s="0"/>
+      <c r="TE54" s="0"/>
+      <c r="TF54" s="0"/>
+      <c r="TG54" s="0"/>
+      <c r="TH54" s="0"/>
+      <c r="TI54" s="0"/>
+      <c r="TJ54" s="0"/>
+      <c r="TK54" s="0"/>
+      <c r="TL54" s="0"/>
+      <c r="TM54" s="0"/>
+      <c r="TN54" s="0"/>
+      <c r="TO54" s="0"/>
+      <c r="TP54" s="0"/>
+      <c r="TQ54" s="0"/>
+      <c r="TR54" s="0"/>
+      <c r="TS54" s="0"/>
+      <c r="TT54" s="0"/>
+      <c r="TU54" s="0"/>
+      <c r="TV54" s="0"/>
+      <c r="TW54" s="0"/>
+      <c r="TX54" s="0"/>
+      <c r="TY54" s="0"/>
+      <c r="TZ54" s="0"/>
+      <c r="UA54" s="0"/>
+      <c r="UB54" s="0"/>
+      <c r="UC54" s="0"/>
+      <c r="UD54" s="0"/>
+      <c r="UE54" s="0"/>
+      <c r="UF54" s="0"/>
+      <c r="UG54" s="0"/>
+      <c r="UH54" s="0"/>
+      <c r="UI54" s="0"/>
+      <c r="UJ54" s="0"/>
+      <c r="UK54" s="0"/>
+      <c r="UL54" s="0"/>
+      <c r="UM54" s="0"/>
+      <c r="UN54" s="0"/>
+      <c r="UO54" s="0"/>
+      <c r="UP54" s="0"/>
+      <c r="UQ54" s="0"/>
+      <c r="UR54" s="0"/>
+      <c r="US54" s="0"/>
+      <c r="UT54" s="0"/>
+      <c r="UU54" s="0"/>
+      <c r="UV54" s="0"/>
+      <c r="UW54" s="0"/>
+      <c r="UX54" s="0"/>
+      <c r="UY54" s="0"/>
+      <c r="UZ54" s="0"/>
+      <c r="VA54" s="0"/>
+      <c r="VB54" s="0"/>
+      <c r="VC54" s="0"/>
+      <c r="VD54" s="0"/>
+      <c r="VE54" s="0"/>
+      <c r="VF54" s="0"/>
+      <c r="VG54" s="0"/>
+      <c r="VH54" s="0"/>
+      <c r="VI54" s="0"/>
+      <c r="VJ54" s="0"/>
+      <c r="VK54" s="0"/>
+      <c r="VL54" s="0"/>
+      <c r="VM54" s="0"/>
+      <c r="VN54" s="0"/>
+      <c r="VO54" s="0"/>
+      <c r="VP54" s="0"/>
+      <c r="VQ54" s="0"/>
+      <c r="VR54" s="0"/>
+      <c r="VS54" s="0"/>
+      <c r="VT54" s="0"/>
+      <c r="VU54" s="0"/>
+      <c r="VV54" s="0"/>
+      <c r="VW54" s="0"/>
+      <c r="VX54" s="0"/>
+      <c r="VY54" s="0"/>
+      <c r="VZ54" s="0"/>
+      <c r="WA54" s="0"/>
+      <c r="WB54" s="0"/>
+      <c r="WC54" s="0"/>
+      <c r="WD54" s="0"/>
+      <c r="WE54" s="0"/>
+      <c r="WF54" s="0"/>
+      <c r="WG54" s="0"/>
+      <c r="WH54" s="0"/>
+      <c r="WI54" s="0"/>
+      <c r="WJ54" s="0"/>
+      <c r="WK54" s="0"/>
+      <c r="WL54" s="0"/>
+      <c r="WM54" s="0"/>
+      <c r="WN54" s="0"/>
+      <c r="WO54" s="0"/>
+      <c r="WP54" s="0"/>
+      <c r="WQ54" s="0"/>
+      <c r="WR54" s="0"/>
+      <c r="WS54" s="0"/>
+      <c r="WT54" s="0"/>
+      <c r="WU54" s="0"/>
+      <c r="WV54" s="0"/>
+      <c r="WW54" s="0"/>
+      <c r="WX54" s="0"/>
+      <c r="WY54" s="0"/>
+      <c r="WZ54" s="0"/>
+      <c r="XA54" s="0"/>
+      <c r="XB54" s="0"/>
+      <c r="XC54" s="0"/>
+      <c r="XD54" s="0"/>
+      <c r="XE54" s="0"/>
+      <c r="XF54" s="0"/>
+      <c r="XG54" s="0"/>
+      <c r="XH54" s="0"/>
+      <c r="XI54" s="0"/>
+      <c r="XJ54" s="0"/>
+      <c r="XK54" s="0"/>
+      <c r="XL54" s="0"/>
+      <c r="XM54" s="0"/>
+      <c r="XN54" s="0"/>
+      <c r="XO54" s="0"/>
+      <c r="XP54" s="0"/>
+      <c r="XQ54" s="0"/>
+      <c r="XR54" s="0"/>
+      <c r="XS54" s="0"/>
+      <c r="XT54" s="0"/>
+      <c r="XU54" s="0"/>
+      <c r="XV54" s="0"/>
+      <c r="XW54" s="0"/>
+      <c r="XX54" s="0"/>
+      <c r="XY54" s="0"/>
+      <c r="XZ54" s="0"/>
+      <c r="YA54" s="0"/>
+      <c r="YB54" s="0"/>
+      <c r="YC54" s="0"/>
+      <c r="YD54" s="0"/>
+      <c r="YE54" s="0"/>
+      <c r="YF54" s="0"/>
+      <c r="YG54" s="0"/>
+      <c r="YH54" s="0"/>
+      <c r="YI54" s="0"/>
+      <c r="YJ54" s="0"/>
+      <c r="YK54" s="0"/>
+      <c r="YL54" s="0"/>
+      <c r="YM54" s="0"/>
+      <c r="YN54" s="0"/>
+      <c r="YO54" s="0"/>
+      <c r="YP54" s="0"/>
+      <c r="YQ54" s="0"/>
+      <c r="YR54" s="0"/>
+      <c r="YS54" s="0"/>
+      <c r="YT54" s="0"/>
+      <c r="YU54" s="0"/>
+      <c r="YV54" s="0"/>
+      <c r="YW54" s="0"/>
+      <c r="YX54" s="0"/>
+      <c r="YY54" s="0"/>
+      <c r="YZ54" s="0"/>
+      <c r="ZA54" s="0"/>
+      <c r="ZB54" s="0"/>
+      <c r="ZC54" s="0"/>
+      <c r="ZD54" s="0"/>
+      <c r="ZE54" s="0"/>
+      <c r="ZF54" s="0"/>
+      <c r="ZG54" s="0"/>
+      <c r="ZH54" s="0"/>
+      <c r="ZI54" s="0"/>
+      <c r="ZJ54" s="0"/>
+      <c r="ZK54" s="0"/>
+      <c r="ZL54" s="0"/>
+      <c r="ZM54" s="0"/>
+      <c r="ZN54" s="0"/>
+      <c r="ZO54" s="0"/>
+      <c r="ZP54" s="0"/>
+      <c r="ZQ54" s="0"/>
+      <c r="ZR54" s="0"/>
+      <c r="ZS54" s="0"/>
+      <c r="ZT54" s="0"/>
+      <c r="ZU54" s="0"/>
+      <c r="ZV54" s="0"/>
+      <c r="ZW54" s="0"/>
+      <c r="ZX54" s="0"/>
+      <c r="ZY54" s="0"/>
+      <c r="ZZ54" s="0"/>
+      <c r="AAA54" s="0"/>
+      <c r="AAB54" s="0"/>
+      <c r="AAC54" s="0"/>
+      <c r="AAD54" s="0"/>
+      <c r="AAE54" s="0"/>
+      <c r="AAF54" s="0"/>
+      <c r="AAG54" s="0"/>
+      <c r="AAH54" s="0"/>
+      <c r="AAI54" s="0"/>
+      <c r="AAJ54" s="0"/>
+      <c r="AAK54" s="0"/>
+      <c r="AAL54" s="0"/>
+      <c r="AAM54" s="0"/>
+      <c r="AAN54" s="0"/>
+      <c r="AAO54" s="0"/>
+      <c r="AAP54" s="0"/>
+      <c r="AAQ54" s="0"/>
+      <c r="AAR54" s="0"/>
+      <c r="AAS54" s="0"/>
+      <c r="AAT54" s="0"/>
+      <c r="AAU54" s="0"/>
+      <c r="AAV54" s="0"/>
+      <c r="AAW54" s="0"/>
+      <c r="AAX54" s="0"/>
+      <c r="AAY54" s="0"/>
+      <c r="AAZ54" s="0"/>
+      <c r="ABA54" s="0"/>
+      <c r="ABB54" s="0"/>
+      <c r="ABC54" s="0"/>
+      <c r="ABD54" s="0"/>
+      <c r="ABE54" s="0"/>
+      <c r="ABF54" s="0"/>
+      <c r="ABG54" s="0"/>
+      <c r="ABH54" s="0"/>
+      <c r="ABI54" s="0"/>
+      <c r="ABJ54" s="0"/>
+      <c r="ABK54" s="0"/>
+      <c r="ABL54" s="0"/>
+      <c r="ABM54" s="0"/>
+      <c r="ABN54" s="0"/>
+      <c r="ABO54" s="0"/>
+      <c r="ABP54" s="0"/>
+      <c r="ABQ54" s="0"/>
+      <c r="ABR54" s="0"/>
+      <c r="ABS54" s="0"/>
+      <c r="ABT54" s="0"/>
+      <c r="ABU54" s="0"/>
+      <c r="ABV54" s="0"/>
+      <c r="ABW54" s="0"/>
+      <c r="ABX54" s="0"/>
+      <c r="ABY54" s="0"/>
+      <c r="ABZ54" s="0"/>
+      <c r="ACA54" s="0"/>
+      <c r="ACB54" s="0"/>
+      <c r="ACC54" s="0"/>
+      <c r="ACD54" s="0"/>
+      <c r="ACE54" s="0"/>
+      <c r="ACF54" s="0"/>
+      <c r="ACG54" s="0"/>
+      <c r="ACH54" s="0"/>
+      <c r="ACI54" s="0"/>
+      <c r="ACJ54" s="0"/>
+      <c r="ACK54" s="0"/>
+      <c r="ACL54" s="0"/>
+      <c r="ACM54" s="0"/>
+      <c r="ACN54" s="0"/>
+      <c r="ACO54" s="0"/>
+      <c r="ACP54" s="0"/>
+      <c r="ACQ54" s="0"/>
+      <c r="ACR54" s="0"/>
+      <c r="ACS54" s="0"/>
+      <c r="ACT54" s="0"/>
+      <c r="ACU54" s="0"/>
+      <c r="ACV54" s="0"/>
+      <c r="ACW54" s="0"/>
+      <c r="ACX54" s="0"/>
+      <c r="ACY54" s="0"/>
+      <c r="ACZ54" s="0"/>
+      <c r="ADA54" s="0"/>
+      <c r="ADB54" s="0"/>
+      <c r="ADC54" s="0"/>
+      <c r="ADD54" s="0"/>
+      <c r="ADE54" s="0"/>
+      <c r="ADF54" s="0"/>
+      <c r="ADG54" s="0"/>
+      <c r="ADH54" s="0"/>
+      <c r="ADI54" s="0"/>
+      <c r="ADJ54" s="0"/>
+      <c r="ADK54" s="0"/>
+      <c r="ADL54" s="0"/>
+      <c r="ADM54" s="0"/>
+      <c r="ADN54" s="0"/>
+      <c r="ADO54" s="0"/>
+      <c r="ADP54" s="0"/>
+      <c r="ADQ54" s="0"/>
+      <c r="ADR54" s="0"/>
+      <c r="ADS54" s="0"/>
+      <c r="ADT54" s="0"/>
+      <c r="ADU54" s="0"/>
+      <c r="ADV54" s="0"/>
+      <c r="ADW54" s="0"/>
+      <c r="ADX54" s="0"/>
+      <c r="ADY54" s="0"/>
+      <c r="ADZ54" s="0"/>
+      <c r="AEA54" s="0"/>
+      <c r="AEB54" s="0"/>
+      <c r="AEC54" s="0"/>
+      <c r="AED54" s="0"/>
+      <c r="AEE54" s="0"/>
+      <c r="AEF54" s="0"/>
+      <c r="AEG54" s="0"/>
+      <c r="AEH54" s="0"/>
+      <c r="AEI54" s="0"/>
+      <c r="AEJ54" s="0"/>
+      <c r="AEK54" s="0"/>
+      <c r="AEL54" s="0"/>
+      <c r="AEM54" s="0"/>
+      <c r="AEN54" s="0"/>
+      <c r="AEO54" s="0"/>
+      <c r="AEP54" s="0"/>
+      <c r="AEQ54" s="0"/>
+      <c r="AER54" s="0"/>
+      <c r="AES54" s="0"/>
+      <c r="AET54" s="0"/>
+      <c r="AEU54" s="0"/>
+      <c r="AEV54" s="0"/>
+      <c r="AEW54" s="0"/>
+      <c r="AEX54" s="0"/>
+      <c r="AEY54" s="0"/>
+      <c r="AEZ54" s="0"/>
+      <c r="AFA54" s="0"/>
+      <c r="AFB54" s="0"/>
+      <c r="AFC54" s="0"/>
+      <c r="AFD54" s="0"/>
+      <c r="AFE54" s="0"/>
+      <c r="AFF54" s="0"/>
+      <c r="AFG54" s="0"/>
+      <c r="AFH54" s="0"/>
+      <c r="AFI54" s="0"/>
+      <c r="AFJ54" s="0"/>
+      <c r="AFK54" s="0"/>
+      <c r="AFL54" s="0"/>
+      <c r="AFM54" s="0"/>
+      <c r="AFN54" s="0"/>
+      <c r="AFO54" s="0"/>
+      <c r="AFP54" s="0"/>
+      <c r="AFQ54" s="0"/>
+      <c r="AFR54" s="0"/>
+      <c r="AFS54" s="0"/>
+      <c r="AFT54" s="0"/>
+      <c r="AFU54" s="0"/>
+      <c r="AFV54" s="0"/>
+      <c r="AFW54" s="0"/>
+      <c r="AFX54" s="0"/>
+      <c r="AFY54" s="0"/>
+      <c r="AFZ54" s="0"/>
+      <c r="AGA54" s="0"/>
+      <c r="AGB54" s="0"/>
+      <c r="AGC54" s="0"/>
+      <c r="AGD54" s="0"/>
+      <c r="AGE54" s="0"/>
+      <c r="AGF54" s="0"/>
+      <c r="AGG54" s="0"/>
+      <c r="AGH54" s="0"/>
+      <c r="AGI54" s="0"/>
+      <c r="AGJ54" s="0"/>
+      <c r="AGK54" s="0"/>
+      <c r="AGL54" s="0"/>
+      <c r="AGM54" s="0"/>
+      <c r="AGN54" s="0"/>
+      <c r="AGO54" s="0"/>
+      <c r="AGP54" s="0"/>
+      <c r="AGQ54" s="0"/>
+      <c r="AGR54" s="0"/>
+      <c r="AGS54" s="0"/>
+      <c r="AGT54" s="0"/>
+      <c r="AGU54" s="0"/>
+      <c r="AGV54" s="0"/>
+      <c r="AGW54" s="0"/>
+      <c r="AGX54" s="0"/>
+      <c r="AGY54" s="0"/>
+      <c r="AGZ54" s="0"/>
+      <c r="AHA54" s="0"/>
+      <c r="AHB54" s="0"/>
+      <c r="AHC54" s="0"/>
+      <c r="AHD54" s="0"/>
+      <c r="AHE54" s="0"/>
+      <c r="AHF54" s="0"/>
+      <c r="AHG54" s="0"/>
+      <c r="AHH54" s="0"/>
+      <c r="AHI54" s="0"/>
+      <c r="AHJ54" s="0"/>
+      <c r="AHK54" s="0"/>
+      <c r="AHL54" s="0"/>
+      <c r="AHM54" s="0"/>
+      <c r="AHN54" s="0"/>
+      <c r="AHO54" s="0"/>
+      <c r="AHP54" s="0"/>
+      <c r="AHQ54" s="0"/>
+      <c r="AHR54" s="0"/>
+      <c r="AHS54" s="0"/>
+      <c r="AHT54" s="0"/>
+      <c r="AHU54" s="0"/>
+      <c r="AHV54" s="0"/>
+      <c r="AHW54" s="0"/>
+      <c r="AHX54" s="0"/>
+      <c r="AHY54" s="0"/>
+      <c r="AHZ54" s="0"/>
+      <c r="AIA54" s="0"/>
+      <c r="AIB54" s="0"/>
+      <c r="AIC54" s="0"/>
+      <c r="AID54" s="0"/>
+      <c r="AIE54" s="0"/>
+      <c r="AIF54" s="0"/>
+      <c r="AIG54" s="0"/>
+      <c r="AIH54" s="0"/>
+      <c r="AII54" s="0"/>
+      <c r="AIJ54" s="0"/>
+      <c r="AIK54" s="0"/>
+      <c r="AIL54" s="0"/>
+      <c r="AIM54" s="0"/>
+      <c r="AIN54" s="0"/>
+      <c r="AIO54" s="0"/>
+      <c r="AIP54" s="0"/>
+      <c r="AIQ54" s="0"/>
+      <c r="AIR54" s="0"/>
+      <c r="AIS54" s="0"/>
+      <c r="AIT54" s="0"/>
+      <c r="AIU54" s="0"/>
+      <c r="AIV54" s="0"/>
+      <c r="AIW54" s="0"/>
+      <c r="AIX54" s="0"/>
+      <c r="AIY54" s="0"/>
+      <c r="AIZ54" s="0"/>
+      <c r="AJA54" s="0"/>
+      <c r="AJB54" s="0"/>
+      <c r="AJC54" s="0"/>
+      <c r="AJD54" s="0"/>
+      <c r="AJE54" s="0"/>
+      <c r="AJF54" s="0"/>
+      <c r="AJG54" s="0"/>
+      <c r="AJH54" s="0"/>
+      <c r="AJI54" s="0"/>
+      <c r="AJJ54" s="0"/>
+      <c r="AJK54" s="0"/>
+      <c r="AJL54" s="0"/>
+      <c r="AJM54" s="0"/>
+      <c r="AJN54" s="0"/>
+      <c r="AJO54" s="0"/>
+      <c r="AJP54" s="0"/>
+      <c r="AJQ54" s="0"/>
+      <c r="AJR54" s="0"/>
+      <c r="AJS54" s="0"/>
+      <c r="AJT54" s="0"/>
+      <c r="AJU54" s="0"/>
+      <c r="AJV54" s="0"/>
+      <c r="AJW54" s="0"/>
+      <c r="AJX54" s="0"/>
+      <c r="AJY54" s="0"/>
+      <c r="AJZ54" s="0"/>
+      <c r="AKA54" s="0"/>
+      <c r="AKB54" s="0"/>
+      <c r="AKC54" s="0"/>
+      <c r="AKD54" s="0"/>
+      <c r="AKE54" s="0"/>
+      <c r="AKF54" s="0"/>
+      <c r="AKG54" s="0"/>
+      <c r="AKH54" s="0"/>
+      <c r="AKI54" s="0"/>
+      <c r="AKJ54" s="0"/>
+      <c r="AKK54" s="0"/>
+      <c r="AKL54" s="0"/>
+      <c r="AKM54" s="0"/>
+      <c r="AKN54" s="0"/>
+      <c r="AKO54" s="0"/>
+      <c r="AKP54" s="0"/>
+      <c r="AKQ54" s="0"/>
+      <c r="AKR54" s="0"/>
+      <c r="AKS54" s="0"/>
+      <c r="AKT54" s="0"/>
+      <c r="AKU54" s="0"/>
+      <c r="AKV54" s="0"/>
+      <c r="AKW54" s="0"/>
+      <c r="AKX54" s="0"/>
+      <c r="AKY54" s="0"/>
+      <c r="AKZ54" s="0"/>
+      <c r="ALA54" s="0"/>
+      <c r="ALB54" s="0"/>
+      <c r="ALC54" s="0"/>
+      <c r="ALD54" s="0"/>
+      <c r="ALE54" s="0"/>
+      <c r="ALF54" s="0"/>
+      <c r="ALG54" s="0"/>
+      <c r="ALH54" s="0"/>
+      <c r="ALI54" s="0"/>
+      <c r="ALJ54" s="0"/>
+      <c r="ALK54" s="0"/>
+      <c r="ALL54" s="0"/>
+      <c r="ALM54" s="0"/>
+      <c r="ALN54" s="0"/>
+      <c r="ALO54" s="0"/>
+      <c r="ALP54" s="0"/>
+      <c r="ALQ54" s="0"/>
+      <c r="ALR54" s="0"/>
+      <c r="ALS54" s="0"/>
+      <c r="ALT54" s="0"/>
+      <c r="ALU54" s="0"/>
+      <c r="ALV54" s="0"/>
+      <c r="ALW54" s="0"/>
+      <c r="ALX54" s="0"/>
+      <c r="ALY54" s="0"/>
+      <c r="ALZ54" s="0"/>
+      <c r="AMA54" s="0"/>
+      <c r="AMB54" s="0"/>
+      <c r="AMC54" s="0"/>
+      <c r="AMD54" s="0"/>
+      <c r="AME54" s="0"/>
+      <c r="AMF54" s="0"/>
+      <c r="AMG54" s="0"/>
+      <c r="AMH54" s="0"/>
+      <c r="AMI54" s="0"/>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F55" s="30"/>
@@ -6955,10 +10061,10 @@
       <c r="W64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="13"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="15"/>
@@ -10081,13 +13187,10 @@
       <c r="I221" s="13"/>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
-      <c r="L221" s="15"/>
       <c r="M221" s="14"/>
       <c r="N221" s="14"/>
       <c r="O221" s="14"/>
       <c r="P221" s="14"/>
-      <c r="Q221" s="15"/>
-      <c r="R221" s="15"/>
       <c r="S221" s="14"/>
       <c r="T221" s="14"/>
       <c r="U221" s="16"/>
@@ -10622,21 +13725,7 @@
       <c r="W252" s="17"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
-      <c r="H253" s="12"/>
-      <c r="I253" s="13"/>
-      <c r="J253" s="14"/>
-      <c r="K253" s="14"/>
-      <c r="M253" s="14"/>
-      <c r="N253" s="14"/>
-      <c r="O253" s="14"/>
-      <c r="P253" s="14"/>
-      <c r="S253" s="14"/>
-      <c r="T253" s="14"/>
-      <c r="U253" s="16"/>
-      <c r="V253" s="2"/>
-      <c r="W253" s="17"/>
+      <c r="W253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W254" s="14"/>
@@ -11886,9 +14975,7 @@
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W669" s="14"/>
     </row>
-    <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W670" s="14"/>
-    </row>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12220,7 +15307,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:W53"/>
+  <autoFilter ref="A9:W52"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -12230,21 +15317,37 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:N13 P10:P13 M35:N36 P35:P36 J38 M38:N38 P38 J43 M43:N43 P43 J45 M45:N45 P45 J52 M52:N53 P52:P53" type="list">
+  <dataValidations count="8">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:N13 P10:P13 J37 M37:N37 P37 J42 M42:N42 P42 J44 M44:N44 P44 J51 M51:N52 P51:P52" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T10:T13 T15 T17 T19:T53" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T10:T13 T15 T17 T19:T34 T36:T52" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J17 M14:N34 P14:P34 J19:J37 M37:N37 P37 J39:J42 M39:N42 P39:P42 J44 M44:N44 P44 J46:J51 M46:N51 P46:P51 J53" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J17 M14:N34 P14:P34 J19:J34 J36 M36:N36 P36 J38:J41 M38:N41 P38:P41 J43 M43:N43 P43 J45:J50 M45:N50 P45:P50 J52:J54" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:R13 Q35:R36 Q38:R38 Q43:R43 Q45:R45 Q52:R54" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:R13 Q37:R37 Q42:R42 Q44:R44 Q51:R52" type="list">
+      <formula1>#rif!!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M35:N35 P35:R35 M53:N54 P53:R54" type="list">
       <formula1>#RIF!!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K53:K54" type="list">
+      <formula1>Summary!$A$2:$A$8</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T35 T53:T54" type="list">
+      <formula1>#RIF!!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J35" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12273,7 +15376,7 @@
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -12283,73 +15386,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>254</v>
+      <c r="C1" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="40" t="s">
         <v>258</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12357,41 +15460,41 @@
         <v>52</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>269</v>
+        <v>258</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>272</v>
+        <v>258</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>275</v>
+        <v>258</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12399,83 +15502,83 @@
         <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>277</v>
+        <v>258</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>280</v>
+        <v>258</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C11" s="54" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>282</v>
+      <c r="D11" s="54" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C12" s="54" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>283</v>
+      <c r="D12" s="54" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C13" s="54" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>284</v>
+      <c r="D13" s="55" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C14" s="54" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>285</v>
+      <c r="D14" s="54" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12483,41 +15586,41 @@
         <v>52</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C15" s="54" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>286</v>
+      <c r="D15" s="55" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C16" s="54" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>287</v>
+      <c r="D16" s="55" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C17" s="54" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>288</v>
+      <c r="D17" s="55" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12525,69 +15628,69 @@
         <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="40" t="n">
+        <v>283</v>
+      </c>
+      <c r="C18" s="54" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>289</v>
+      <c r="D18" s="55" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C19" s="54" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>291</v>
+      <c r="D19" s="54" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C20" s="54" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>292</v>
+      <c r="D20" s="54" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C21" s="54" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>293</v>
+      <c r="D21" s="55" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C22" s="54" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>294</v>
+      <c r="D22" s="54" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12595,41 +15698,41 @@
         <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C23" s="54" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>295</v>
+      <c r="D23" s="55" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C24" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C24" s="54" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>296</v>
+      <c r="D24" s="55" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C25" s="54" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>297</v>
+      <c r="D25" s="55" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12637,69 +15740,69 @@
         <v>75</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="40" t="n">
+        <v>292</v>
+      </c>
+      <c r="C26" s="54" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>298</v>
+      <c r="D26" s="55" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C27" s="54" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>300</v>
+      <c r="D27" s="54" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C28" s="54" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>301</v>
+      <c r="D28" s="54" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C29" s="54" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>302</v>
+      <c r="D29" s="56" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C30" s="54" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>303</v>
+      <c r="D30" s="54" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12707,41 +15810,41 @@
         <v>52</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C31" s="54" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>304</v>
+      <c r="D31" s="55" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C32" s="54" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>305</v>
+      <c r="D32" s="55" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C33" s="54" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>306</v>
+      <c r="D33" s="55" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12749,68 +15852,68 @@
         <v>75</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="40" t="n">
+        <v>301</v>
+      </c>
+      <c r="C34" s="54" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>307</v>
+      <c r="D34" s="55" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C35" s="54" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="40" t="n">
+      <c r="D35" s="54" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C36" s="54" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="40" t="n">
+      <c r="D36" s="54" t="n">
         <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C37" s="54" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="41" t="n">
+      <c r="D37" s="55" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C38" s="54" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="40" t="n">
+      <c r="D38" s="54" t="n">
         <v>252</v>
       </c>
     </row>
@@ -12819,40 +15922,40 @@
         <v>52</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C39" s="54" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="41" t="n">
+      <c r="D39" s="55" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C40" s="54" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="41" t="n">
+      <c r="D40" s="55" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C41" s="54" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="41" t="n">
+      <c r="D41" s="55" t="n">
         <v>300</v>
       </c>
     </row>
@@ -12861,68 +15964,68 @@
         <v>75</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="40" t="n">
+        <v>310</v>
+      </c>
+      <c r="C42" s="54" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="41" t="n">
+      <c r="D42" s="55" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C43" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C43" s="54" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="40" t="n">
+      <c r="D43" s="54" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C44" s="54" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="40" t="n">
+      <c r="D44" s="54" t="n">
         <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C45" s="54" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="41" t="n">
+      <c r="D45" s="55" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C46" s="54" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="40" t="n">
+      <c r="D46" s="54" t="n">
         <v>255</v>
       </c>
     </row>
@@ -12931,40 +16034,40 @@
         <v>52</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C47" s="54" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="41" t="n">
+      <c r="D47" s="55" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C48" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C48" s="54" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="41" t="n">
+      <c r="D48" s="55" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C49" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C49" s="54" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="41" t="n">
+      <c r="D49" s="55" t="n">
         <v>303</v>
       </c>
     </row>
@@ -12973,12 +16076,12 @@
         <v>75</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="40" t="n">
+        <v>311</v>
+      </c>
+      <c r="C50" s="54" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="41" t="n">
+      <c r="D50" s="55" t="n">
         <v>319</v>
       </c>
     </row>
@@ -13954,7 +17057,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -13971,7 +17074,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>58</v>
@@ -13979,7 +17082,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>82</v>

--- a/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -787,7 +788,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il campo è presente staticamente nel template del CDA e non gestito da interfaccia</t>
+    <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1835,7 +1836,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2909,7 +2910,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4019,7 +4020,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5800,7 +5801,7 @@
       <c r="J35" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L35" s="32"/>
@@ -6880,7 +6881,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="n">
         <v>176</v>
       </c>
@@ -6896,16 +6897,14 @@
       <c r="E37" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="30" t="n">
-        <v>45545</v>
-      </c>
+      <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L37" s="32"/>
@@ -7190,7 +7189,7 @@
       <c r="J42" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L42" s="32"/>
@@ -7292,7 +7291,7 @@
       <c r="J44" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L44" s="32"/>
@@ -7699,7 +7698,7 @@
       <c r="J51" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K51" s="31" t="s">
+      <c r="K51" s="32" t="s">
         <v>173</v>
       </c>
       <c r="L51" s="32"/>
@@ -15307,7 +15306,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:W52"/>
+  <autoFilter ref="A9:W54"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -15317,7 +15316,7 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:N13 P10:P13 J37 M37:N37 P37 J42 M42:N42 P42 J44 M44:N44 P44 J51 M51:N52 P51:P52" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
@@ -15335,7 +15334,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M35:N35 P35:R35 M53:N54 P53:R54" type="list">
-      <formula1>#RIF!!$B$2:$B$3</formula1>
+      <formula1>#rif!!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K53:K54" type="list">
@@ -15343,11 +15342,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T35 T53:T54" type="list">
-      <formula1>#RIF!!$A$2:$A$3</formula1>
+      <formula1>#rif!!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J35" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K35 K37 K42 K44 K51" type="list">
+      <formula1>Summary!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -15376,7 +15379,7 @@
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -17057,7 +17060,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>

--- a/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111080XXXXXXXX/Lepida/Lepida_CVPI/2.0.1/report-checklist.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="315">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1048,13 +1048,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-10T15:43:41Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b7242f70f13d5d92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.f2a3c05dcb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-09-17T10:33:43Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004c5769529253e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.45c38fad3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT2</t>
@@ -1065,10 +1065,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">71f38d5322e081f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.958832c656^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-09-17T10:33:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fcca57d8ada8205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.80.3.1.4.4.736173ee74d930e556d58b87162a2f32bc02383a123808d438ea8244bfa6a3b9.9a95323c51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1836,7 +1839,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2910,7 +2913,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -4016,11 +4019,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="H53" activeCellId="0" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7780,7 +7783,7 @@
         <v>247</v>
       </c>
       <c r="F53" s="30" t="n">
-        <v>45545</v>
+        <v>45552</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>248</v>
@@ -8828,16 +8831,16 @@
         <v>252</v>
       </c>
       <c r="F54" s="30" t="n">
-        <v>45545</v>
+        <v>45552</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J54" s="31" t="s">
         <v>58</v>
@@ -15306,7 +15309,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:W54"/>
+  <autoFilter ref="A9:W52"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -15379,7 +15382,7 @@
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -15396,66 +15399,66 @@
         <v>29</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15463,41 +15466,41 @@
         <v>52</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15505,83 +15508,83 @@
         <v>75</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C11" s="54" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C12" s="54" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C13" s="54" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C14" s="54" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15589,41 +15592,41 @@
         <v>52</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C15" s="54" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C16" s="54" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C17" s="54" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15631,69 +15634,69 @@
         <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C18" s="54" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C19" s="54" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C20" s="54" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C21" s="54" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C22" s="54" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15701,41 +15704,41 @@
         <v>52</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C23" s="54" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C24" s="54" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C25" s="54" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15743,69 +15746,69 @@
         <v>75</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C26" s="54" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C27" s="54" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C28" s="54" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C29" s="54" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C30" s="54" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15813,41 +15816,41 @@
         <v>52</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C31" s="54" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="54" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C33" s="54" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15855,21 +15858,21 @@
         <v>75</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="54" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C35" s="54" t="n">
         <v>195</v>
@@ -15880,10 +15883,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C36" s="54" t="n">
         <v>211</v>
@@ -15894,10 +15897,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C37" s="54" t="n">
         <v>227</v>
@@ -15908,10 +15911,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="54" t="n">
         <v>243</v>
@@ -15925,7 +15928,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="54" t="n">
         <v>259</v>
@@ -15936,10 +15939,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="54" t="n">
         <v>275</v>
@@ -15950,10 +15953,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" s="54" t="n">
         <v>291</v>
@@ -15967,7 +15970,7 @@
         <v>75</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" s="54" t="n">
         <v>307</v>
@@ -15978,10 +15981,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C43" s="54" t="n">
         <v>196</v>
@@ -15992,10 +15995,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C44" s="54" t="n">
         <v>212</v>
@@ -16006,10 +16009,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C45" s="54" t="n">
         <v>228</v>
@@ -16020,10 +16023,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C46" s="54" t="n">
         <v>244</v>
@@ -16037,7 +16040,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C47" s="54" t="n">
         <v>260</v>
@@ -16048,10 +16051,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C48" s="54" t="n">
         <v>276</v>
@@ -16062,10 +16065,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C49" s="54" t="n">
         <v>292</v>
@@ -16079,7 +16082,7 @@
         <v>75</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="54" t="n">
         <v>308</v>
@@ -17060,7 +17063,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -17077,7 +17080,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>58</v>
@@ -17085,7 +17088,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>82</v>
